--- a/設計書/Oishi/プロジェクト型演習_成果物(メニュー).xlsx
+++ b/設計書/Oishi/プロジェクト型演習_成果物(メニュー).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B0493A6-EE66-4B9F-AA72-C1A5CDD21AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331B493B-BFAA-4A84-BA14-E5621F5C41C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="837" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -331,19 +331,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>タスク管理システムにログインし、メニュー画面を表示できていること</t>
-    <rPh sb="3" eb="5">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>①ログイン完了後、システムが自動的にメニュー画面を表示する
 ②ユーザーは各機能のボタンを押して操作を選択する</t>
     <phoneticPr fontId="7"/>
@@ -357,12 +344,18 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>① ユーザーのセッションがタイムアウトしている場合、ログイン画面にリダイレクトする
-② システムエラーが発生した場合、エラーページを表示し、システム管理者に連絡するよう促す</t>
+    <t>ユーザーがメニュー画面から各機能へアクセスできる状態になる</t>
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>ユーザーがメニュー画面から各機能へアクセスできる状態になる</t>
+    <t>ユーザーのセッションがタイムアウトしている場合、ログイン画面にリダイレクトする</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>タスク管理システムにログインできていること</t>
+    <rPh sb="3" eb="5">
+      <t>カンリ</t>
+    </rPh>
     <phoneticPr fontId="7"/>
   </si>
 </sst>
@@ -1272,6 +1265,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1299,12 +1304,114 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1314,203 +1421,89 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2035,85 +2028,85 @@
   <sheetData>
     <row r="1" spans="3:16" ht="30" customHeight="1"/>
     <row r="2" spans="3:16" ht="30" customHeight="1">
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="3:16" ht="30" customHeight="1">
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="3:16" ht="30" customHeight="1">
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="3:16" ht="30" customHeight="1">
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="3:16" ht="30" customHeight="1">
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="3:16" ht="30" customHeight="1">
@@ -2133,48 +2126,48 @@
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="3:16" ht="30" customHeight="1">
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
     </row>
     <row r="9" spans="3:16" ht="30" customHeight="1"/>
     <row r="10" spans="3:16" ht="30" customHeight="1"/>
     <row r="11" spans="3:16" ht="30" customHeight="1"/>
     <row r="12" spans="3:16" ht="30" customHeight="1"/>
     <row r="13" spans="3:16" ht="15.75" customHeight="1">
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="H13" s="23"/>
-      <c r="I13" s="21" t="s">
+      <c r="H13" s="27"/>
+      <c r="I13" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="J13" s="22"/>
-      <c r="K13" s="23"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="27"/>
     </row>
     <row r="14" spans="3:16" ht="15.75" customHeight="1">
-      <c r="G14" s="21"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="29">
+      <c r="G14" s="25"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="33">
         <v>45632</v>
       </c>
-      <c r="J14" s="22"/>
-      <c r="K14" s="23"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="27"/>
     </row>
     <row r="15" spans="3:16" ht="15.75" customHeight="1">
-      <c r="G15" s="21"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="23"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="27"/>
     </row>
     <row r="16" spans="3:16" ht="15.75" customHeight="1">
       <c r="G16" s="3"/>
@@ -2183,13 +2176,13 @@
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="7:11" ht="30" customHeight="1">
-      <c r="G17" s="24" t="s">
+      <c r="G17" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
     </row>
     <row r="18" spans="7:11" ht="14.25" customHeight="1"/>
     <row r="19" spans="7:11" ht="24.75" customHeight="1"/>
@@ -3208,19 +3201,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="30" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="30" t="s">
+      <c r="E1" s="54"/>
+      <c r="F1" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="31"/>
+      <c r="G1" s="54"/>
       <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
@@ -3232,192 +3225,192 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="57"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="32" t="s">
+      <c r="A2" s="48"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="32" t="s">
+      <c r="E2" s="71"/>
+      <c r="F2" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="38">
+      <c r="G2" s="71"/>
+      <c r="H2" s="74">
         <v>45632</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="I2" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="J2" s="42"/>
+      <c r="J2" s="66"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="57"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="43"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="67"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="58"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="44"/>
+      <c r="A4" s="50"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="68"/>
     </row>
     <row r="5" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="68" t="s">
+      <c r="B5" s="38"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="69"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="39"/>
     </row>
     <row r="6" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="46" t="s">
+      <c r="B6" s="26"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="47"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="41"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="46" t="s">
+      <c r="B7" s="26"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="47"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="41"/>
     </row>
     <row r="8" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="46" t="s">
+      <c r="B8" s="26"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="41"/>
+    </row>
+    <row r="9" spans="1:10" ht="64.5" customHeight="1">
+      <c r="A9" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="47"/>
-    </row>
-    <row r="9" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A9" s="63" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="70" t="s">
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="41"/>
+    </row>
+    <row r="10" spans="1:10" ht="64.5" customHeight="1">
+      <c r="A10" s="57"/>
+      <c r="B10" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="27"/>
+      <c r="D10" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="47"/>
-    </row>
-    <row r="10" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A10" s="64"/>
-      <c r="B10" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="46" t="s">
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="41"/>
+    </row>
+    <row r="11" spans="1:10" ht="64.5" customHeight="1">
+      <c r="A11" s="58"/>
+      <c r="B11" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="47"/>
-    </row>
-    <row r="11" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A11" s="65"/>
-      <c r="B11" s="45" t="s">
+      <c r="C11" s="27"/>
+      <c r="D11" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="41"/>
+    </row>
+    <row r="12" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A12" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="61"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="70" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="47"/>
-    </row>
-    <row r="12" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A12" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="47"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="41"/>
     </row>
     <row r="13" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="52"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="67"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="36"/>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:10" ht="12.75" customHeight="1"/>
@@ -4408,14 +4401,16 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D13:J13"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D2:E4"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D12:J12"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A1:C4"/>
     <mergeCell ref="A5:C5"/>
@@ -4425,16 +4420,14 @@
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="A12:C12"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D2:E4"/>
-    <mergeCell ref="F2:G4"/>
-    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D11:J11"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0" footer="0"/>
@@ -4461,282 +4454,282 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="93" t="s">
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="92" t="s">
+      <c r="E1" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92" t="s">
+      <c r="F1" s="76"/>
+      <c r="G1" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="94"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="77"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="72" t="s">
+      <c r="E2" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="72"/>
-      <c r="G2" s="90" t="s">
+      <c r="F2" s="78"/>
+      <c r="G2" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="96"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="80"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="97"/>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98" t="s">
+      <c r="A3" s="82"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="98"/>
-      <c r="G3" s="99" t="s">
+      <c r="F3" s="83"/>
+      <c r="G3" s="84" t="s">
         <v>58</v>
       </c>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="100"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="85"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="84"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="85" t="s">
+      <c r="B4" s="93"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="86"/>
-      <c r="F4" s="85" t="s">
+      <c r="E4" s="96"/>
+      <c r="F4" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="86"/>
-      <c r="H4" s="87" t="s">
+      <c r="G4" s="96"/>
+      <c r="H4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="88" t="s">
+      <c r="I4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="89" t="s">
+      <c r="J4" s="23" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="18" customHeight="1">
-      <c r="A5" s="57"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="32" t="s">
+      <c r="A5" s="48"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="33"/>
-      <c r="F5" s="32" t="s">
+      <c r="E5" s="71"/>
+      <c r="F5" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="38">
+      <c r="G5" s="71"/>
+      <c r="H5" s="74">
         <v>45632</v>
       </c>
-      <c r="I5" s="41" t="s">
+      <c r="I5" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="42"/>
+      <c r="J5" s="66"/>
     </row>
     <row r="6" spans="1:10" ht="18" customHeight="1">
-      <c r="A6" s="57"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="43"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="67"/>
     </row>
     <row r="7" spans="1:10" ht="18" customHeight="1">
-      <c r="A7" s="57"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="43"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="67"/>
     </row>
     <row r="8" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A8" s="77" t="s">
+      <c r="A8" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="78" t="s">
+      <c r="B8" s="38"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="69"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="39"/>
     </row>
     <row r="9" spans="1:10" ht="21" customHeight="1">
-      <c r="A9" s="74" t="s">
+      <c r="A9" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="47"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="41"/>
     </row>
     <row r="10" spans="1:10" ht="21" customHeight="1">
-      <c r="A10" s="79"/>
-      <c r="B10" s="80"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="81"/>
+      <c r="A10" s="86"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="88"/>
     </row>
     <row r="11" spans="1:10" ht="21" customHeight="1">
-      <c r="A11" s="57"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="82"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="89"/>
     </row>
     <row r="12" spans="1:10" ht="21" customHeight="1">
-      <c r="A12" s="57"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="82"/>
+      <c r="A12" s="48"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="89"/>
     </row>
     <row r="13" spans="1:10" ht="21" customHeight="1">
-      <c r="A13" s="57"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="82"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="89"/>
     </row>
     <row r="14" spans="1:10" ht="21" customHeight="1">
-      <c r="A14" s="57"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="82"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="89"/>
     </row>
     <row r="15" spans="1:10" ht="21" customHeight="1">
-      <c r="A15" s="57"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="82"/>
+      <c r="A15" s="48"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="89"/>
     </row>
     <row r="16" spans="1:10" ht="21" customHeight="1">
-      <c r="A16" s="57"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="82"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="89"/>
     </row>
     <row r="17" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A17" s="57"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="82"/>
+      <c r="A17" s="48"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="89"/>
     </row>
     <row r="18" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A18" s="74" t="s">
+      <c r="A18" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="47"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="41"/>
     </row>
     <row r="19" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A19" s="74" t="s">
+      <c r="A19" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="46" t="s">
+      <c r="B19" s="26"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="23"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="27"/>
       <c r="I19" s="15" t="s">
         <v>24</v>
       </c>
@@ -4745,11 +4738,11 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A20" s="74" t="s">
+      <c r="A20" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="23"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="27"/>
       <c r="D20" s="15" t="s">
         <v>26</v>
       </c>
@@ -4762,18 +4755,18 @@
       <c r="G20" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H20" s="75" t="s">
+      <c r="H20" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="22"/>
-      <c r="J20" s="47"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="41"/>
     </row>
     <row r="21" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A21" s="73" t="s">
+      <c r="A21" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="23"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="27"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17" t="s">
         <v>38</v>
@@ -4782,51 +4775,51 @@
       <c r="G21" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="H21" s="46" t="s">
+      <c r="H21" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="I21" s="22"/>
-      <c r="J21" s="47"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="41"/>
     </row>
     <row r="22" spans="1:10" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A22" s="76"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="53"/>
+      <c r="A22" s="97"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="44"/>
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
       <c r="F22" s="20"/>
       <c r="G22" s="20"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="67"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="36"/>
     </row>
     <row r="23" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A23" s="74" t="s">
+      <c r="A23" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="47"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="41"/>
     </row>
     <row r="24" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A24" s="74" t="s">
+      <c r="A24" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="46" t="s">
+      <c r="B24" s="26"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="23"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="27"/>
       <c r="I24" s="15" t="s">
         <v>24</v>
       </c>
@@ -4835,11 +4828,11 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A25" s="74" t="s">
+      <c r="A25" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="23"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="27"/>
       <c r="D25" s="15" t="s">
         <v>26</v>
       </c>
@@ -4852,18 +4845,18 @@
       <c r="G25" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H25" s="75" t="s">
+      <c r="H25" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="22"/>
-      <c r="J25" s="47"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="41"/>
     </row>
     <row r="26" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A26" s="73" t="s">
+      <c r="A26" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="23"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="27"/>
       <c r="D26" s="17"/>
       <c r="E26" s="17" t="s">
         <v>38</v>
@@ -4872,51 +4865,51 @@
       <c r="G26" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="H26" s="46" t="s">
+      <c r="H26" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="I26" s="22"/>
-      <c r="J26" s="47"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="41"/>
     </row>
     <row r="27" spans="1:10" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A27" s="76"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="53"/>
+      <c r="A27" s="97"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="44"/>
       <c r="D27" s="19"/>
       <c r="E27" s="19"/>
       <c r="F27" s="20"/>
       <c r="G27" s="20"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="67"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="36"/>
     </row>
     <row r="28" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A28" s="74" t="s">
+      <c r="A28" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="47"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="41"/>
     </row>
     <row r="29" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A29" s="74" t="s">
+      <c r="A29" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="22"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="46" t="s">
+      <c r="B29" s="26"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="23"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="27"/>
       <c r="I29" s="15" t="s">
         <v>24</v>
       </c>
@@ -4925,11 +4918,11 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A30" s="74" t="s">
+      <c r="A30" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="22"/>
-      <c r="C30" s="23"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="27"/>
       <c r="D30" s="15" t="s">
         <v>26</v>
       </c>
@@ -4942,18 +4935,18 @@
       <c r="G30" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H30" s="75" t="s">
+      <c r="H30" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="I30" s="22"/>
-      <c r="J30" s="47"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="41"/>
     </row>
     <row r="31" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A31" s="73" t="s">
+      <c r="A31" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="22"/>
-      <c r="C31" s="23"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="27"/>
       <c r="D31" s="17"/>
       <c r="E31" s="17" t="s">
         <v>38</v>
@@ -4962,23 +4955,23 @@
       <c r="G31" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="H31" s="46" t="s">
+      <c r="H31" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="I31" s="22"/>
-      <c r="J31" s="47"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="41"/>
     </row>
     <row r="32" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A32" s="73"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="23"/>
+      <c r="A32" s="98"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="27"/>
       <c r="D32" s="17"/>
       <c r="E32" s="17"/>
       <c r="F32" s="18"/>
       <c r="G32" s="18"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="47"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="41"/>
     </row>
     <row r="33" ht="12.75" customHeight="1"/>
     <row r="34" ht="12.75" customHeight="1"/>
@@ -5959,23 +5952,21 @@
     <row r="1009" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="A2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="A10:J17"/>
-    <mergeCell ref="D5:E7"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:H29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:H24"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="H25:J25"/>
@@ -5992,21 +5983,23 @@
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="D8:J8"/>
     <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:H29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A10:J17"/>
+    <mergeCell ref="D5:E7"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="A2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:J3"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -6031,19 +6024,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="30" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="30" t="s">
+      <c r="E1" s="54"/>
+      <c r="F1" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="31"/>
+      <c r="G1" s="54"/>
       <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
@@ -6055,46 +6048,46 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="57"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="32" t="s">
+      <c r="A2" s="48"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="32" t="s">
+      <c r="E2" s="71"/>
+      <c r="F2" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="38">
+      <c r="G2" s="71"/>
+      <c r="H2" s="74">
         <v>45632</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="42"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="66"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="57"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="43"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="67"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="58"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="44"/>
+      <c r="A4" s="50"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="68"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>

--- a/設計書/Oishi/プロジェクト型演習_成果物(メニュー).xlsx
+++ b/設計書/Oishi/プロジェクト型演習_成果物(メニュー).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331B493B-BFAA-4A84-BA14-E5621F5C41C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F3DD1F-C11A-4C44-AEDD-9BA572723640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="837" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -247,9 +247,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>レイヤー</t>
-  </si>
-  <si>
     <t>配置場所</t>
     <rPh sb="0" eb="4">
       <t>ハイチバショ</t>
@@ -356,6 +353,10 @@
     <rPh sb="3" eb="5">
       <t>カンリ</t>
     </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>レイヤー</t>
     <phoneticPr fontId="7"/>
   </si>
 </sst>
@@ -1304,131 +1305,170 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1460,49 +1500,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1527,22 +1528,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
+      <xdr:colOff>400050</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>866990</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>66940</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152710</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
+        <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56AB62F5-74E1-4954-9E14-3A545BB00228}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EDA2CFE-1A89-C50D-05FD-D0778E79B7BB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1550,15 +1551,16 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
+      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect t="7255" b="7675"/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3695700" y="1628775"/>
-          <a:ext cx="1543265" cy="2009775"/>
+          <a:off x="3657600" y="2181225"/>
+          <a:ext cx="1895740" cy="2219635"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3201,19 +3203,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="69" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="54"/>
-      <c r="F1" s="69" t="s">
+      <c r="E1" s="35"/>
+      <c r="F1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="54"/>
+      <c r="G1" s="35"/>
       <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
@@ -3225,72 +3227,72 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="48"/>
+      <c r="A2" s="58"/>
       <c r="B2" s="29"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="70" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="70" t="s">
+      <c r="E2" s="37"/>
+      <c r="F2" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="37"/>
+      <c r="H2" s="42">
+        <v>45632</v>
+      </c>
+      <c r="I2" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="71"/>
-      <c r="H2" s="74">
-        <v>45632</v>
-      </c>
-      <c r="I2" s="63" t="s">
-        <v>61</v>
-      </c>
-      <c r="J2" s="66"/>
+      <c r="J2" s="46"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="48"/>
+      <c r="A3" s="58"/>
       <c r="B3" s="29"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="67"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="47"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="68"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="48"/>
     </row>
     <row r="5" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="37" t="s">
+      <c r="B5" s="62"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="39"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="73"/>
     </row>
     <row r="6" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="63" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="26"/>
       <c r="C6" s="27"/>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="50" t="s">
         <v>36</v>
       </c>
       <c r="E6" s="26"/>
@@ -3298,15 +3300,15 @@
       <c r="G6" s="26"/>
       <c r="H6" s="26"/>
       <c r="I6" s="26"/>
-      <c r="J6" s="41"/>
+      <c r="J6" s="51"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="63" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="27"/>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="50" t="s">
         <v>37</v>
       </c>
       <c r="E7" s="26"/>
@@ -3314,103 +3316,103 @@
       <c r="G7" s="26"/>
       <c r="H7" s="26"/>
       <c r="I7" s="26"/>
-      <c r="J7" s="41"/>
+      <c r="J7" s="51"/>
     </row>
     <row r="8" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="63" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="26"/>
       <c r="C8" s="27"/>
-      <c r="D8" s="40" t="s">
-        <v>68</v>
+      <c r="D8" s="50" t="s">
+        <v>67</v>
       </c>
       <c r="E8" s="26"/>
       <c r="F8" s="26"/>
       <c r="G8" s="26"/>
       <c r="H8" s="26"/>
       <c r="I8" s="26"/>
-      <c r="J8" s="41"/>
+      <c r="J8" s="51"/>
     </row>
     <row r="9" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="49" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="27"/>
-      <c r="D9" s="42" t="s">
-        <v>63</v>
+      <c r="D9" s="74" t="s">
+        <v>62</v>
       </c>
       <c r="E9" s="26"/>
       <c r="F9" s="26"/>
       <c r="G9" s="26"/>
       <c r="H9" s="26"/>
       <c r="I9" s="26"/>
-      <c r="J9" s="41"/>
+      <c r="J9" s="51"/>
     </row>
     <row r="10" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A10" s="57"/>
-      <c r="B10" s="59" t="s">
+      <c r="A10" s="65"/>
+      <c r="B10" s="49" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="27"/>
-      <c r="D10" s="40" t="s">
-        <v>64</v>
+      <c r="D10" s="50" t="s">
+        <v>63</v>
       </c>
       <c r="E10" s="26"/>
       <c r="F10" s="26"/>
       <c r="G10" s="26"/>
       <c r="H10" s="26"/>
       <c r="I10" s="26"/>
-      <c r="J10" s="41"/>
+      <c r="J10" s="51"/>
     </row>
     <row r="11" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A11" s="58"/>
-      <c r="B11" s="59" t="s">
-        <v>65</v>
+      <c r="A11" s="66"/>
+      <c r="B11" s="49" t="s">
+        <v>64</v>
       </c>
       <c r="C11" s="27"/>
-      <c r="D11" s="42" t="s">
-        <v>67</v>
+      <c r="D11" s="74" t="s">
+        <v>66</v>
       </c>
       <c r="E11" s="26"/>
       <c r="F11" s="26"/>
       <c r="G11" s="26"/>
       <c r="H11" s="26"/>
       <c r="I11" s="26"/>
-      <c r="J11" s="41"/>
+      <c r="J11" s="51"/>
     </row>
     <row r="12" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="61"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="40" t="s">
-        <v>66</v>
+      <c r="B12" s="68"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="50" t="s">
+        <v>65</v>
       </c>
       <c r="E12" s="26"/>
       <c r="F12" s="26"/>
       <c r="G12" s="26"/>
       <c r="H12" s="26"/>
       <c r="I12" s="26"/>
-      <c r="J12" s="41"/>
+      <c r="J12" s="51"/>
     </row>
     <row r="13" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="36"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="71"/>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:10" ht="12.75" customHeight="1"/>
@@ -4401,16 +4403,14 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D2:E4"/>
-    <mergeCell ref="F2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D11:J11"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A1:C4"/>
     <mergeCell ref="A5:C5"/>
@@ -4420,14 +4420,16 @@
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D13:J13"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D2:E4"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="H2:H4"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0" footer="0"/>
@@ -4440,7 +4442,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J1009"/>
+  <dimension ref="A1:J1010"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
@@ -4454,75 +4456,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="100" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="24" t="s">
+      <c r="E1" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="76" t="s">
+      <c r="F1" s="89"/>
+      <c r="G1" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76" t="s">
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="90"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1">
+      <c r="A2" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="77"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="A2" s="81" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78" t="s">
+      <c r="E2" s="91" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="78" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="78"/>
-      <c r="G2" s="79" t="s">
-        <v>59</v>
-      </c>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="80"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="92" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="93"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="82"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83" t="s">
+      <c r="A3" s="95"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="96"/>
+      <c r="G3" s="97" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="83"/>
-      <c r="G3" s="84" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="85"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="98"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="95" t="s">
+      <c r="B4" s="80"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="96"/>
-      <c r="F4" s="95" t="s">
+      <c r="E4" s="83"/>
+      <c r="F4" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="96"/>
+      <c r="G4" s="83"/>
       <c r="H4" s="21" t="s">
         <v>6</v>
       </c>
@@ -4534,67 +4536,67 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="18" customHeight="1">
-      <c r="A5" s="48"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="29"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="70" t="s">
+      <c r="C5" s="39"/>
+      <c r="D5" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="71"/>
-      <c r="F5" s="70" t="s">
-        <v>60</v>
-      </c>
-      <c r="G5" s="71"/>
-      <c r="H5" s="74">
+      <c r="E5" s="37"/>
+      <c r="F5" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="37"/>
+      <c r="H5" s="42">
         <v>45632</v>
       </c>
-      <c r="I5" s="63" t="s">
+      <c r="I5" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="66"/>
+      <c r="J5" s="46"/>
     </row>
     <row r="6" spans="1:10" ht="18" customHeight="1">
-      <c r="A6" s="48"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="29"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="67"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="47"/>
     </row>
     <row r="7" spans="1:10" ht="18" customHeight="1">
-      <c r="A7" s="48"/>
+      <c r="A7" s="58"/>
       <c r="B7" s="29"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="67"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="47"/>
     </row>
     <row r="8" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A8" s="94" t="s">
+      <c r="A8" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="99" t="s">
+      <c r="B8" s="62"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="39"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="73"/>
     </row>
     <row r="9" spans="1:10" ht="21" customHeight="1">
-      <c r="A9" s="90" t="s">
+      <c r="A9" s="76" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="26"/>
@@ -4605,22 +4607,22 @@
       <c r="G9" s="26"/>
       <c r="H9" s="26"/>
       <c r="I9" s="26"/>
-      <c r="J9" s="41"/>
+      <c r="J9" s="51"/>
     </row>
     <row r="10" spans="1:10" ht="21" customHeight="1">
-      <c r="A10" s="86"/>
-      <c r="B10" s="87"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="88"/>
+      <c r="A10" s="85"/>
+      <c r="B10" s="86"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="87"/>
     </row>
     <row r="11" spans="1:10" ht="21" customHeight="1">
-      <c r="A11" s="48"/>
+      <c r="A11" s="58"/>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
       <c r="D11" s="29"/>
@@ -4629,10 +4631,10 @@
       <c r="G11" s="29"/>
       <c r="H11" s="29"/>
       <c r="I11" s="29"/>
-      <c r="J11" s="89"/>
+      <c r="J11" s="88"/>
     </row>
     <row r="12" spans="1:10" ht="21" customHeight="1">
-      <c r="A12" s="48"/>
+      <c r="A12" s="58"/>
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
       <c r="D12" s="29"/>
@@ -4641,10 +4643,10 @@
       <c r="G12" s="29"/>
       <c r="H12" s="29"/>
       <c r="I12" s="29"/>
-      <c r="J12" s="89"/>
+      <c r="J12" s="88"/>
     </row>
     <row r="13" spans="1:10" ht="21" customHeight="1">
-      <c r="A13" s="48"/>
+      <c r="A13" s="58"/>
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
       <c r="D13" s="29"/>
@@ -4653,10 +4655,10 @@
       <c r="G13" s="29"/>
       <c r="H13" s="29"/>
       <c r="I13" s="29"/>
-      <c r="J13" s="89"/>
+      <c r="J13" s="88"/>
     </row>
     <row r="14" spans="1:10" ht="21" customHeight="1">
-      <c r="A14" s="48"/>
+      <c r="A14" s="58"/>
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
       <c r="D14" s="29"/>
@@ -4665,10 +4667,10 @@
       <c r="G14" s="29"/>
       <c r="H14" s="29"/>
       <c r="I14" s="29"/>
-      <c r="J14" s="89"/>
+      <c r="J14" s="88"/>
     </row>
     <row r="15" spans="1:10" ht="21" customHeight="1">
-      <c r="A15" s="48"/>
+      <c r="A15" s="58"/>
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
       <c r="D15" s="29"/>
@@ -4677,10 +4679,10 @@
       <c r="G15" s="29"/>
       <c r="H15" s="29"/>
       <c r="I15" s="29"/>
-      <c r="J15" s="89"/>
+      <c r="J15" s="88"/>
     </row>
     <row r="16" spans="1:10" ht="21" customHeight="1">
-      <c r="A16" s="48"/>
+      <c r="A16" s="58"/>
       <c r="B16" s="29"/>
       <c r="C16" s="29"/>
       <c r="D16" s="29"/>
@@ -4689,10 +4691,10 @@
       <c r="G16" s="29"/>
       <c r="H16" s="29"/>
       <c r="I16" s="29"/>
-      <c r="J16" s="89"/>
-    </row>
-    <row r="17" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A17" s="48"/>
+      <c r="J16" s="88"/>
+    </row>
+    <row r="17" spans="1:10" ht="21" customHeight="1">
+      <c r="A17" s="58"/>
       <c r="B17" s="29"/>
       <c r="C17" s="29"/>
       <c r="D17" s="29"/>
@@ -4701,294 +4703,305 @@
       <c r="G17" s="29"/>
       <c r="H17" s="29"/>
       <c r="I17" s="29"/>
-      <c r="J17" s="89"/>
+      <c r="J17" s="88"/>
     </row>
     <row r="18" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A18" s="90" t="s">
+      <c r="A18" s="58"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="88"/>
+    </row>
+    <row r="19" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A19" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="41"/>
-    </row>
-    <row r="19" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A19" s="90" t="s">
-        <v>23</v>
-      </c>
       <c r="B19" s="26"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="40" t="s">
-        <v>46</v>
-      </c>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
       <c r="E19" s="26"/>
       <c r="F19" s="26"/>
       <c r="G19" s="26"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="J19" s="16" t="s">
-        <v>55</v>
-      </c>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="51"/>
     </row>
     <row r="20" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A20" s="90" t="s">
-        <v>25</v>
+      <c r="A20" s="76" t="s">
+        <v>23</v>
       </c>
       <c r="B20" s="26"/>
       <c r="C20" s="27"/>
-      <c r="D20" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H20" s="91" t="s">
-        <v>17</v>
-      </c>
-      <c r="I20" s="26"/>
-      <c r="J20" s="41"/>
+      <c r="D20" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20" s="16" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="21" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A21" s="98" t="s">
-        <v>39</v>
+      <c r="A21" s="76" t="s">
+        <v>25</v>
       </c>
       <c r="B21" s="26"/>
       <c r="C21" s="27"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17" t="s">
+      <c r="D21" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="26"/>
+      <c r="J21" s="51"/>
+    </row>
+    <row r="22" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A22" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="26"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18" t="s">
+      <c r="F22" s="18"/>
+      <c r="G22" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="H21" s="40" t="s">
+      <c r="H22" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A22" s="97"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="36"/>
-    </row>
-    <row r="23" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A23" s="90" t="s">
+      <c r="I22" s="26"/>
+      <c r="J22" s="51"/>
+    </row>
+    <row r="23" spans="1:10" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A23" s="78"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="71"/>
+    </row>
+    <row r="24" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A24" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="41"/>
-    </row>
-    <row r="24" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A24" s="90" t="s">
-        <v>23</v>
-      </c>
       <c r="B24" s="26"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="40" t="s">
-        <v>47</v>
-      </c>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
       <c r="E24" s="26"/>
       <c r="F24" s="26"/>
       <c r="G24" s="26"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="J24" s="16" t="s">
-        <v>55</v>
-      </c>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="51"/>
     </row>
     <row r="25" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A25" s="90" t="s">
-        <v>25</v>
+      <c r="A25" s="76" t="s">
+        <v>23</v>
       </c>
       <c r="B25" s="26"/>
       <c r="C25" s="27"/>
-      <c r="D25" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H25" s="91" t="s">
-        <v>17</v>
-      </c>
-      <c r="I25" s="26"/>
-      <c r="J25" s="41"/>
+      <c r="D25" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" s="16" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="26" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A26" s="98" t="s">
-        <v>40</v>
+      <c r="A26" s="76" t="s">
+        <v>25</v>
       </c>
       <c r="B26" s="26"/>
       <c r="C26" s="27"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17" t="s">
+      <c r="D26" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H26" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="26"/>
+      <c r="J26" s="51"/>
+    </row>
+    <row r="27" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A27" s="75" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="26"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18" t="s">
+      <c r="F27" s="18"/>
+      <c r="G27" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="H26" s="40" t="s">
+      <c r="H27" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="I26" s="26"/>
-      <c r="J26" s="41"/>
-    </row>
-    <row r="27" spans="1:10" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A27" s="97"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="36"/>
-    </row>
-    <row r="28" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A28" s="90" t="s">
+      <c r="I27" s="26"/>
+      <c r="J27" s="51"/>
+    </row>
+    <row r="28" spans="1:10" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A28" s="78"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="71"/>
+    </row>
+    <row r="29" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A29" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="41"/>
-    </row>
-    <row r="29" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A29" s="90" t="s">
-        <v>23</v>
-      </c>
       <c r="B29" s="26"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="40" t="s">
-        <v>56</v>
-      </c>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
       <c r="E29" s="26"/>
       <c r="F29" s="26"/>
       <c r="G29" s="26"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="J29" s="16" t="s">
-        <v>62</v>
-      </c>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="51"/>
     </row>
     <row r="30" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A30" s="90" t="s">
-        <v>25</v>
+      <c r="A30" s="76" t="s">
+        <v>23</v>
       </c>
       <c r="B30" s="26"/>
       <c r="C30" s="27"/>
-      <c r="D30" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G30" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H30" s="91" t="s">
-        <v>17</v>
-      </c>
-      <c r="I30" s="26"/>
-      <c r="J30" s="41"/>
+      <c r="D30" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J30" s="16" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="31" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A31" s="98" t="s">
-        <v>41</v>
+      <c r="A31" s="76" t="s">
+        <v>25</v>
       </c>
       <c r="B31" s="26"/>
       <c r="C31" s="27"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18" t="s">
+      <c r="D31" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H31" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" s="26"/>
+      <c r="J31" s="51"/>
+    </row>
+    <row r="32" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A32" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="H31" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="I31" s="26"/>
-      <c r="J31" s="41"/>
-    </row>
-    <row r="32" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A32" s="98"/>
       <c r="B32" s="26"/>
       <c r="C32" s="27"/>
       <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
+      <c r="E32" s="17" t="s">
+        <v>38</v>
+      </c>
       <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="40"/>
+      <c r="G32" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H32" s="50" t="s">
+        <v>45</v>
+      </c>
       <c r="I32" s="26"/>
-      <c r="J32" s="41"/>
-    </row>
-    <row r="33" ht="12.75" customHeight="1"/>
-    <row r="34" ht="12.75" customHeight="1"/>
-    <row r="35" ht="12.75" customHeight="1"/>
-    <row r="36" ht="12.75" customHeight="1"/>
-    <row r="37" ht="12.75" customHeight="1"/>
-    <row r="38" ht="12.75" customHeight="1"/>
-    <row r="39" ht="12.75" customHeight="1"/>
-    <row r="40" ht="12.75" customHeight="1"/>
-    <row r="41" ht="12.75" customHeight="1"/>
-    <row r="42" ht="12.75" customHeight="1"/>
-    <row r="43" ht="12.75" customHeight="1"/>
-    <row r="44" ht="12.75" customHeight="1"/>
-    <row r="45" ht="12.75" customHeight="1"/>
-    <row r="46" ht="12.75" customHeight="1"/>
-    <row r="47" ht="12.75" customHeight="1"/>
-    <row r="48" ht="12.75" customHeight="1"/>
+      <c r="J32" s="51"/>
+    </row>
+    <row r="33" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A33" s="75"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="51"/>
+    </row>
+    <row r="34" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="35" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="36" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="37" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="38" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="39" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="40" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="41" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="42" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="43" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="44" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="45" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="46" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="47" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="48" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="49" ht="12.75" customHeight="1"/>
     <row r="50" ht="12.75" customHeight="1"/>
     <row r="51" ht="12.75" customHeight="1"/>
@@ -5950,47 +5963,9 @@
     <row r="1007" ht="12.75" customHeight="1"/>
     <row r="1008" ht="12.75" customHeight="1"/>
     <row r="1009" ht="12.75" customHeight="1"/>
+    <row r="1010" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:H29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="F5:G7"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="A4:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A10:J17"/>
-    <mergeCell ref="D5:E7"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:J1"/>
@@ -6000,6 +5975,45 @@
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:J3"/>
+    <mergeCell ref="D5:E7"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="F5:G7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="A4:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="A10:J18"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:H25"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -6024,19 +6038,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="69" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="54"/>
-      <c r="F1" s="69" t="s">
+      <c r="E1" s="35"/>
+      <c r="F1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="54"/>
+      <c r="G1" s="35"/>
       <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
@@ -6048,46 +6062,46 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="48"/>
+      <c r="A2" s="58"/>
       <c r="B2" s="29"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="70" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="70" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" s="71"/>
-      <c r="H2" s="74">
+      <c r="E2" s="37"/>
+      <c r="F2" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="37"/>
+      <c r="H2" s="42">
         <v>45632</v>
       </c>
-      <c r="I2" s="63"/>
-      <c r="J2" s="66"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="46"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="48"/>
+      <c r="A3" s="58"/>
       <c r="B3" s="29"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="67"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="47"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="68"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="48"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>

--- a/設計書/Oishi/プロジェクト型演習_成果物(メニュー).xlsx
+++ b/設計書/Oishi/プロジェクト型演習_成果物(メニュー).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F3DD1F-C11A-4C44-AEDD-9BA572723640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2704683A-4127-4F2C-8568-045BD8585261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="837" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="72">
   <si>
     <t>プロジェクト型演習　成果ドキュメント</t>
   </si>
@@ -359,6 +359,33 @@
     <t>レイヤー</t>
     <phoneticPr fontId="7"/>
   </si>
+  <si>
+    <t>大石</t>
+    <rPh sb="0" eb="2">
+      <t>オオイシ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>header.jsp</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ログインユーザー名とタスク期限ごとの表示をする画面</t>
+    <rPh sb="8" eb="9">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キゲン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
 </sst>
 </file>
 
@@ -367,7 +394,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-411]h:mm"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -437,6 +464,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -452,7 +486,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="61">
+  <borders count="67">
     <border>
       <left/>
       <right/>
@@ -1198,11 +1232,87 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1305,12 +1415,114 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1320,141 +1532,72 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1470,41 +1613,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1527,23 +1664,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1085850</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>66940</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>152710</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>857685</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>200520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
+        <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EDA2CFE-1A89-C50D-05FD-D0778E79B7BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58B60F5E-BE60-04CE-2444-0440A9E6CCDE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1559,14 +1696,624 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3657600" y="2181225"/>
-          <a:ext cx="1895740" cy="2219635"/>
+          <a:off x="2114550" y="3228975"/>
+          <a:ext cx="3115110" cy="3543795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>724319</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171942</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C6207B3-2FC3-F93F-7410-0A4A4E0D205F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5438775" y="3219450"/>
+          <a:ext cx="3000794" cy="3524742"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1019175</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBF2802B-DB1F-D051-96D7-8101B36C10D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="76200" y="2905125"/>
+          <a:ext cx="8658225" cy="1676400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>238124</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>790575</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>228599</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48DCD77D-07D9-6346-0347-C1E13593B5D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="342900" y="3609974"/>
+          <a:ext cx="1476375" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>header.jsp</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1028701</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AAFD1B2-B8FC-866B-F4E9-25B2E47EE7A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="76201" y="5029201"/>
+          <a:ext cx="8667750" cy="1790699"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>790575</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E4BE15B-B448-4F7C-9461-25A4AC42D533}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="323850" y="5419725"/>
+          <a:ext cx="1495425" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>menu.jsp</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" kern="1200">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{776502F7-8D6B-4AD4-8607-745FBE6EF7C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2200275" y="2581275"/>
+          <a:ext cx="2924175" cy="457199"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>期限が近いタスクがない場合</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>981075</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>895350</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19484BB1-5F22-789C-20E6-A759846EAEB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2009775" y="2419350"/>
+          <a:ext cx="3257550" cy="4581525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1019175</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADA09BF6-B766-81C3-9889-9A095BA61468}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5391150" y="2409825"/>
+          <a:ext cx="3200400" cy="4600575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{925B55FE-B8CF-4FB3-930A-8628720D7E19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5534025" y="2581275"/>
+          <a:ext cx="2924175" cy="457199"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>タスク期限が迫っている場合</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1579,13 +2326,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>888311</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1600,8 +2347,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="180975" y="1057275"/>
-          <a:ext cx="1736036" cy="1381125"/>
+          <a:off x="180975" y="1057276"/>
+          <a:ext cx="1736036" cy="1905000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1811,6 +2558,90 @@
               </a:solidFill>
             </a:rPr>
             <a:t>menu.jsp</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>755374</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77B08526-1EA9-4727-A511-0058B7D30C2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="257175" y="2400300"/>
+          <a:ext cx="1526899" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;&lt;JSP&gt;&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>header.jsp</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2159,7 +2990,7 @@
       <c r="G14" s="25"/>
       <c r="H14" s="27"/>
       <c r="I14" s="33">
-        <v>45632</v>
+        <v>45639</v>
       </c>
       <c r="J14" s="26"/>
       <c r="K14" s="27"/>
@@ -3203,19 +4034,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="34" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="35"/>
-      <c r="F1" s="34" t="s">
+      <c r="E1" s="54"/>
+      <c r="F1" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="35"/>
+      <c r="G1" s="54"/>
       <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
@@ -3227,72 +4058,72 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="58"/>
+      <c r="A2" s="48"/>
       <c r="B2" s="29"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="36" t="s">
+      <c r="C2" s="49"/>
+      <c r="D2" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="36" t="s">
+      <c r="E2" s="71"/>
+      <c r="F2" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="37"/>
-      <c r="H2" s="42">
-        <v>45632</v>
-      </c>
-      <c r="I2" s="45" t="s">
+      <c r="G2" s="71"/>
+      <c r="H2" s="74">
+        <v>45639</v>
+      </c>
+      <c r="I2" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="J2" s="46"/>
+      <c r="J2" s="66"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="58"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="29"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="47"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="67"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="59"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="48"/>
+      <c r="A4" s="50"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="68"/>
     </row>
     <row r="5" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="72" t="s">
+      <c r="B5" s="38"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="73"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="39"/>
     </row>
     <row r="6" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="55" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="26"/>
       <c r="C6" s="27"/>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="40" t="s">
         <v>36</v>
       </c>
       <c r="E6" s="26"/>
@@ -3300,15 +4131,15 @@
       <c r="G6" s="26"/>
       <c r="H6" s="26"/>
       <c r="I6" s="26"/>
-      <c r="J6" s="51"/>
+      <c r="J6" s="41"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="55" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="27"/>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="40" t="s">
         <v>37</v>
       </c>
       <c r="E7" s="26"/>
@@ -3316,15 +4147,15 @@
       <c r="G7" s="26"/>
       <c r="H7" s="26"/>
       <c r="I7" s="26"/>
-      <c r="J7" s="51"/>
+      <c r="J7" s="41"/>
     </row>
     <row r="8" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="55" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="26"/>
       <c r="C8" s="27"/>
-      <c r="D8" s="50" t="s">
+      <c r="D8" s="40" t="s">
         <v>67</v>
       </c>
       <c r="E8" s="26"/>
@@ -3332,17 +4163,17 @@
       <c r="G8" s="26"/>
       <c r="H8" s="26"/>
       <c r="I8" s="26"/>
-      <c r="J8" s="51"/>
+      <c r="J8" s="41"/>
     </row>
     <row r="9" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="59" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="27"/>
-      <c r="D9" s="74" t="s">
+      <c r="D9" s="42" t="s">
         <v>62</v>
       </c>
       <c r="E9" s="26"/>
@@ -3350,15 +4181,15 @@
       <c r="G9" s="26"/>
       <c r="H9" s="26"/>
       <c r="I9" s="26"/>
-      <c r="J9" s="51"/>
+      <c r="J9" s="41"/>
     </row>
     <row r="10" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A10" s="65"/>
-      <c r="B10" s="49" t="s">
+      <c r="A10" s="57"/>
+      <c r="B10" s="59" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="27"/>
-      <c r="D10" s="50" t="s">
+      <c r="D10" s="40" t="s">
         <v>63</v>
       </c>
       <c r="E10" s="26"/>
@@ -3366,15 +4197,15 @@
       <c r="G10" s="26"/>
       <c r="H10" s="26"/>
       <c r="I10" s="26"/>
-      <c r="J10" s="51"/>
+      <c r="J10" s="41"/>
     </row>
     <row r="11" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A11" s="66"/>
-      <c r="B11" s="49" t="s">
+      <c r="A11" s="58"/>
+      <c r="B11" s="59" t="s">
         <v>64</v>
       </c>
       <c r="C11" s="27"/>
-      <c r="D11" s="74" t="s">
+      <c r="D11" s="42" t="s">
         <v>66</v>
       </c>
       <c r="E11" s="26"/>
@@ -3382,15 +4213,15 @@
       <c r="G11" s="26"/>
       <c r="H11" s="26"/>
       <c r="I11" s="26"/>
-      <c r="J11" s="51"/>
+      <c r="J11" s="41"/>
     </row>
     <row r="12" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A12" s="67" t="s">
+      <c r="A12" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="68"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="50" t="s">
+      <c r="B12" s="61"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="40" t="s">
         <v>65</v>
       </c>
       <c r="E12" s="26"/>
@@ -3398,21 +4229,21 @@
       <c r="G12" s="26"/>
       <c r="H12" s="26"/>
       <c r="I12" s="26"/>
-      <c r="J12" s="51"/>
+      <c r="J12" s="41"/>
     </row>
     <row r="13" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="53"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="71"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="36"/>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:10" ht="12.75" customHeight="1"/>
@@ -4403,14 +5234,16 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D13:J13"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D2:E4"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D12:J12"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A1:C4"/>
     <mergeCell ref="A5:C5"/>
@@ -4420,16 +5253,14 @@
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="A12:C12"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D2:E4"/>
-    <mergeCell ref="F2:G4"/>
-    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D11:J11"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0" footer="0"/>
@@ -4442,7 +5273,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J1010"/>
+  <dimension ref="A1:J1020"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
@@ -4456,197 +5287,201 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
       <c r="D1" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="89" t="s">
+      <c r="E1" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89" t="s">
+      <c r="F1" s="76"/>
+      <c r="G1" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="90"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="77"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="81" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="91" t="s">
+      <c r="E2" s="105" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="91"/>
-      <c r="G2" s="92" t="s">
+      <c r="F2" s="78"/>
+      <c r="G2" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="93"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="95"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96" t="s">
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="80"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1">
+      <c r="A3" s="101"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="104" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="103"/>
+      <c r="G3" s="107" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="109"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" thickBot="1">
+      <c r="A4" s="82"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="96"/>
-      <c r="G3" s="97" t="s">
+      <c r="F4" s="83"/>
+      <c r="G4" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="98"/>
-    </row>
-    <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="79" t="s">
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="85"/>
+    </row>
+    <row r="5" spans="1:10" ht="18" customHeight="1">
+      <c r="A5" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="82" t="s">
+      <c r="B5" s="89"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="83"/>
-      <c r="F4" s="82" t="s">
+      <c r="E5" s="92"/>
+      <c r="F5" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="83"/>
-      <c r="H4" s="21" t="s">
+      <c r="G5" s="92"/>
+      <c r="H5" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I5" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J5" s="23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18" customHeight="1">
-      <c r="A5" s="58"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="36" t="s">
+    <row r="6" spans="1:10" ht="18" customHeight="1">
+      <c r="A6" s="48"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="36" t="s">
+      <c r="E6" s="71"/>
+      <c r="F6" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="G5" s="37"/>
-      <c r="H5" s="42">
-        <v>45632</v>
-      </c>
-      <c r="I5" s="45" t="s">
+      <c r="G6" s="71"/>
+      <c r="H6" s="74">
+        <v>45639</v>
+      </c>
+      <c r="I6" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="46"/>
-    </row>
-    <row r="6" spans="1:10" ht="18" customHeight="1">
-      <c r="A6" s="58"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="47"/>
+      <c r="J6" s="66"/>
     </row>
     <row r="7" spans="1:10" ht="18" customHeight="1">
-      <c r="A7" s="58"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="29"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="47"/>
-    </row>
-    <row r="8" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A8" s="81" t="s">
+      <c r="C7" s="49"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="67"/>
+    </row>
+    <row r="8" spans="1:10" ht="18" customHeight="1">
+      <c r="A8" s="48"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="67"/>
+    </row>
+    <row r="9" spans="1:10" ht="28.5" customHeight="1">
+      <c r="A9" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="84" t="s">
+      <c r="B9" s="38"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="73"/>
-    </row>
-    <row r="9" spans="1:10" ht="21" customHeight="1">
-      <c r="A9" s="76" t="s">
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="39"/>
+    </row>
+    <row r="10" spans="1:10" ht="21" customHeight="1">
+      <c r="A10" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="51"/>
-    </row>
-    <row r="10" spans="1:10" ht="21" customHeight="1">
-      <c r="A10" s="85"/>
-      <c r="B10" s="86"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="87"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="41"/>
     </row>
     <row r="11" spans="1:10" ht="21" customHeight="1">
-      <c r="A11" s="58"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="88"/>
+      <c r="A11" s="96"/>
+      <c r="B11" s="97"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="97"/>
+      <c r="I11" s="97"/>
+      <c r="J11" s="98"/>
     </row>
     <row r="12" spans="1:10" ht="21" customHeight="1">
-      <c r="A12" s="58"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="88"/>
+      <c r="A12" s="88"/>
+      <c r="B12" s="106"/>
+      <c r="C12" s="106"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="106"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="106"/>
+      <c r="J12" s="99"/>
     </row>
     <row r="13" spans="1:10" ht="21" customHeight="1">
-      <c r="A13" s="58"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
       <c r="D13" s="29"/>
@@ -4655,10 +5490,10 @@
       <c r="G13" s="29"/>
       <c r="H13" s="29"/>
       <c r="I13" s="29"/>
-      <c r="J13" s="88"/>
+      <c r="J13" s="99"/>
     </row>
     <row r="14" spans="1:10" ht="21" customHeight="1">
-      <c r="A14" s="58"/>
+      <c r="A14" s="48"/>
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
       <c r="D14" s="29"/>
@@ -4667,10 +5502,10 @@
       <c r="G14" s="29"/>
       <c r="H14" s="29"/>
       <c r="I14" s="29"/>
-      <c r="J14" s="88"/>
+      <c r="J14" s="99"/>
     </row>
     <row r="15" spans="1:10" ht="21" customHeight="1">
-      <c r="A15" s="58"/>
+      <c r="A15" s="48"/>
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
       <c r="D15" s="29"/>
@@ -4679,10 +5514,10 @@
       <c r="G15" s="29"/>
       <c r="H15" s="29"/>
       <c r="I15" s="29"/>
-      <c r="J15" s="88"/>
+      <c r="J15" s="99"/>
     </row>
     <row r="16" spans="1:10" ht="21" customHeight="1">
-      <c r="A16" s="58"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="29"/>
       <c r="C16" s="29"/>
       <c r="D16" s="29"/>
@@ -4691,10 +5526,10 @@
       <c r="G16" s="29"/>
       <c r="H16" s="29"/>
       <c r="I16" s="29"/>
-      <c r="J16" s="88"/>
+      <c r="J16" s="99"/>
     </row>
     <row r="17" spans="1:10" ht="21" customHeight="1">
-      <c r="A17" s="58"/>
+      <c r="A17" s="48"/>
       <c r="B17" s="29"/>
       <c r="C17" s="29"/>
       <c r="D17" s="29"/>
@@ -4703,10 +5538,10 @@
       <c r="G17" s="29"/>
       <c r="H17" s="29"/>
       <c r="I17" s="29"/>
-      <c r="J17" s="88"/>
-    </row>
-    <row r="18" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A18" s="58"/>
+      <c r="J17" s="99"/>
+    </row>
+    <row r="18" spans="1:10" ht="21" customHeight="1">
+      <c r="A18" s="48"/>
       <c r="B18" s="29"/>
       <c r="C18" s="29"/>
       <c r="D18" s="29"/>
@@ -4715,190 +5550,130 @@
       <c r="G18" s="29"/>
       <c r="H18" s="29"/>
       <c r="I18" s="29"/>
-      <c r="J18" s="88"/>
-    </row>
-    <row r="19" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A19" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="51"/>
-    </row>
-    <row r="20" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A20" s="76" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="J20" s="16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A21" s="76" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H21" s="77" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" s="26"/>
-      <c r="J21" s="51"/>
-    </row>
-    <row r="22" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A22" s="75" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="H22" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="I22" s="26"/>
-      <c r="J22" s="51"/>
-    </row>
-    <row r="23" spans="1:10" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A23" s="78"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="71"/>
-    </row>
-    <row r="24" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A24" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="51"/>
-    </row>
-    <row r="25" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A25" s="76" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="J25" s="16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A26" s="76" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H26" s="77" t="s">
-        <v>17</v>
-      </c>
-      <c r="I26" s="26"/>
-      <c r="J26" s="51"/>
-    </row>
-    <row r="27" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A27" s="75" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="H27" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="I27" s="26"/>
-      <c r="J27" s="51"/>
-    </row>
-    <row r="28" spans="1:10" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A28" s="78"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="71"/>
+      <c r="J18" s="99"/>
+    </row>
+    <row r="19" spans="1:10" ht="21" customHeight="1">
+      <c r="A19" s="48"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="99"/>
+    </row>
+    <row r="20" spans="1:10" ht="21" customHeight="1">
+      <c r="A20" s="48"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="99"/>
+    </row>
+    <row r="21" spans="1:10" ht="21" customHeight="1">
+      <c r="A21" s="48"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="99"/>
+    </row>
+    <row r="22" spans="1:10" ht="21" customHeight="1">
+      <c r="A22" s="48"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="99"/>
+    </row>
+    <row r="23" spans="1:10" ht="21" customHeight="1">
+      <c r="A23" s="48"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="99"/>
+    </row>
+    <row r="24" spans="1:10" ht="21" customHeight="1">
+      <c r="A24" s="48"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="99"/>
+    </row>
+    <row r="25" spans="1:10" ht="21" customHeight="1">
+      <c r="A25" s="48"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="99"/>
+    </row>
+    <row r="26" spans="1:10" ht="21" customHeight="1">
+      <c r="A26" s="48"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="99"/>
+    </row>
+    <row r="27" spans="1:10" ht="21" customHeight="1">
+      <c r="A27" s="48"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="99"/>
+    </row>
+    <row r="28" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A28" s="48"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="99"/>
     </row>
     <row r="29" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A29" s="76" t="s">
+      <c r="A29" s="86" t="s">
         <v>22</v>
       </c>
       <c r="B29" s="26"/>
@@ -4909,16 +5684,16 @@
       <c r="G29" s="26"/>
       <c r="H29" s="26"/>
       <c r="I29" s="26"/>
-      <c r="J29" s="51"/>
+      <c r="J29" s="41"/>
     </row>
     <row r="30" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A30" s="76" t="s">
+      <c r="A30" s="86" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="26"/>
       <c r="C30" s="27"/>
-      <c r="D30" s="50" t="s">
-        <v>55</v>
+      <c r="D30" s="40" t="s">
+        <v>46</v>
       </c>
       <c r="E30" s="26"/>
       <c r="F30" s="26"/>
@@ -4928,11 +5703,11 @@
         <v>24</v>
       </c>
       <c r="J30" s="16" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A31" s="76" t="s">
+      <c r="A31" s="86" t="s">
         <v>25</v>
       </c>
       <c r="B31" s="26"/>
@@ -4949,15 +5724,15 @@
       <c r="G31" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H31" s="77" t="s">
+      <c r="H31" s="87" t="s">
         <v>17</v>
       </c>
       <c r="I31" s="26"/>
-      <c r="J31" s="51"/>
+      <c r="J31" s="41"/>
     </row>
     <row r="32" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A32" s="75" t="s">
-        <v>41</v>
+      <c r="A32" s="94" t="s">
+        <v>39</v>
       </c>
       <c r="B32" s="26"/>
       <c r="C32" s="27"/>
@@ -4967,36 +5742,206 @@
       </c>
       <c r="F32" s="18"/>
       <c r="G32" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="H32" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="I32" s="26"/>
+      <c r="J32" s="41"/>
+    </row>
+    <row r="33" spans="1:10" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A33" s="93"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="36"/>
+    </row>
+    <row r="34" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A34" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="41"/>
+    </row>
+    <row r="35" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A35" s="86" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="26"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J35" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A36" s="86" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="26"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H36" s="87" t="s">
+        <v>17</v>
+      </c>
+      <c r="I36" s="26"/>
+      <c r="J36" s="41"/>
+    </row>
+    <row r="37" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A37" s="94" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="26"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="H37" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="I37" s="26"/>
+      <c r="J37" s="41"/>
+    </row>
+    <row r="38" spans="1:10" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A38" s="93"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="36"/>
+    </row>
+    <row r="39" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A39" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="41"/>
+    </row>
+    <row r="40" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A40" s="86" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="26"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J40" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A41" s="86" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" s="26"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G41" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H41" s="87" t="s">
+        <v>17</v>
+      </c>
+      <c r="I41" s="26"/>
+      <c r="J41" s="41"/>
+    </row>
+    <row r="42" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A42" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="H32" s="50" t="s">
+      <c r="B42" s="26"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H42" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="I32" s="26"/>
-      <c r="J32" s="51"/>
-    </row>
-    <row r="33" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A33" s="75"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="51"/>
-    </row>
-    <row r="34" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="35" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="36" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="37" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="38" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="39" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="40" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="41" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="42" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="43" spans="1:10" ht="12.75" customHeight="1"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="41"/>
+    </row>
+    <row r="43" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A43" s="94"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="40"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="41"/>
+    </row>
     <row r="44" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="45" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="46" spans="1:10" ht="12.75" customHeight="1"/>
@@ -5964,56 +6909,68 @@
     <row r="1008" ht="12.75" customHeight="1"/>
     <row r="1009" ht="12.75" customHeight="1"/>
     <row r="1010" ht="12.75" customHeight="1"/>
+    <row r="1011" ht="12.75" customHeight="1"/>
+    <row r="1012" ht="12.75" customHeight="1"/>
+    <row r="1013" ht="12.75" customHeight="1"/>
+    <row r="1014" ht="12.75" customHeight="1"/>
+    <row r="1015" ht="12.75" customHeight="1"/>
+    <row r="1016" ht="12.75" customHeight="1"/>
+    <row r="1017" ht="12.75" customHeight="1"/>
+    <row r="1018" ht="12.75" customHeight="1"/>
+    <row r="1019" ht="12.75" customHeight="1"/>
+    <row r="1020" ht="12.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="50">
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="D35:H35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="F6:G8"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="A5:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A11:J28"/>
+    <mergeCell ref="D6:E8"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="H32:J32"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:J2"/>
-    <mergeCell ref="A2:C3"/>
-    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="A2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:J4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:J3"/>
-    <mergeCell ref="D5:E7"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="F5:G7"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="A4:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A10:J18"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:H25"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -6038,19 +6995,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="34" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="35"/>
-      <c r="F1" s="34" t="s">
+      <c r="E1" s="54"/>
+      <c r="F1" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="35"/>
+      <c r="G1" s="54"/>
       <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
@@ -6062,46 +7019,48 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="58"/>
+      <c r="A2" s="48"/>
       <c r="B2" s="29"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="36" t="s">
+      <c r="C2" s="49"/>
+      <c r="D2" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="36" t="s">
+      <c r="E2" s="71"/>
+      <c r="F2" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="37"/>
-      <c r="H2" s="42">
-        <v>45632</v>
-      </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="46"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="74">
+        <v>45639</v>
+      </c>
+      <c r="I2" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" s="66"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="58"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="29"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="47"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="67"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="59"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="48"/>
+      <c r="A4" s="50"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="68"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>

--- a/設計書/Oishi/プロジェクト型演習_成果物(メニュー).xlsx
+++ b/設計書/Oishi/プロジェクト型演習_成果物(メニュー).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2704683A-4127-4F2C-8568-045BD8585261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F384DE-4BE9-4D5B-8EEC-F0502D7E58E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="837" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,13 +17,14 @@
     <sheet name="ユースケース記述" sheetId="2" r:id="rId2"/>
     <sheet name="画面設計書" sheetId="5" r:id="rId3"/>
     <sheet name="詳細クラス図" sheetId="4" r:id="rId4"/>
+    <sheet name="テスト仕様書兼結果報告書" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="107">
   <si>
     <t>プロジェクト型演習　成果ドキュメント</t>
   </si>
@@ -386,6 +387,198 @@
     </rPh>
     <phoneticPr fontId="7"/>
   </si>
+  <si>
+    <t>テスト仕様書兼
+結果報告書</t>
+  </si>
+  <si>
+    <t>テストレベル</t>
+  </si>
+  <si>
+    <t>単体テスト</t>
+    <rPh sb="0" eb="2">
+      <t>タンタイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>テストベース</t>
+  </si>
+  <si>
+    <t>画面設計書</t>
+    <rPh sb="0" eb="5">
+      <t>ガメンセッケイショ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>テスト対象</t>
+  </si>
+  <si>
+    <t>重要度</t>
+  </si>
+  <si>
+    <t>重要度は、次のいずれかを持つ</t>
+  </si>
+  <si>
+    <t>◎：仕様　⇒100%解決する必要がある</t>
+  </si>
+  <si>
+    <t>○：重要　⇒別途テストパス率の指針に従う</t>
+  </si>
+  <si>
+    <t>△：重要ではない　⇒別途テストパス率の指針に従う</t>
+  </si>
+  <si>
+    <t>×：無くても良い　⇒個別に検討する</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>系統</t>
+  </si>
+  <si>
+    <t>テストテーマ</t>
+  </si>
+  <si>
+    <t>条件</t>
+  </si>
+  <si>
+    <t>操作手順</t>
+  </si>
+  <si>
+    <t>予測結果</t>
+  </si>
+  <si>
+    <t>テスト日</t>
+  </si>
+  <si>
+    <t>対応者</t>
+  </si>
+  <si>
+    <t>結果</t>
+  </si>
+  <si>
+    <t>◎</t>
+  </si>
+  <si>
+    <t xml:space="preserve">正常系
+</t>
+  </si>
+  <si>
+    <t>なし</t>
+  </si>
+  <si>
+    <t>メニュー画面</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>URLアクセス</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>メニュー画面へ遷移する</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ログイン後、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://localhost:8080/ProjectX/LoginServlet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　へアクセスする</t>
+    </r>
+    <rPh sb="4" eb="5">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>タスク登録ボタンを押下する</t>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>タスク一覧表示ボタンを押下する</t>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ログアウトボタンを押下する</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>タスク登録画面に遷移する</t>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>タスク一覧表示画面に遷移する</t>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ログアウト画面に遷移する</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>画面観点</t>
+    <phoneticPr fontId="7"/>
+  </si>
 </sst>
 </file>
 
@@ -394,7 +587,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-411]h:mm"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -471,6 +664,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="MS PGothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Yu Gothic"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -486,7 +692,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="67">
+  <borders count="76">
     <border>
       <left/>
       <right/>
@@ -1308,11 +1514,107 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1415,128 +1717,170 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1547,6 +1891,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1559,6 +1906,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1571,81 +1924,226 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="67" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="68" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="69" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="70" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="71" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="72" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="73" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="74" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="75" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 5" xfId="1" xr:uid="{69BA0D75-3B46-4A83-BEE4-ED65ED37135B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4034,19 +4532,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="69" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="54"/>
-      <c r="F1" s="69" t="s">
+      <c r="E1" s="35"/>
+      <c r="F1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="54"/>
+      <c r="G1" s="35"/>
       <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
@@ -4058,72 +4556,72 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="48"/>
+      <c r="A2" s="58"/>
       <c r="B2" s="29"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="70" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="70" t="s">
+      <c r="E2" s="37"/>
+      <c r="F2" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="71"/>
-      <c r="H2" s="74">
+      <c r="G2" s="37"/>
+      <c r="H2" s="42">
         <v>45639</v>
       </c>
-      <c r="I2" s="63" t="s">
+      <c r="I2" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="J2" s="66"/>
+      <c r="J2" s="46"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="48"/>
+      <c r="A3" s="58"/>
       <c r="B3" s="29"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="67"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="47"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="68"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="48"/>
     </row>
     <row r="5" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="37" t="s">
+      <c r="B5" s="62"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="39"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="73"/>
     </row>
     <row r="6" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="63" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="26"/>
       <c r="C6" s="27"/>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="50" t="s">
         <v>36</v>
       </c>
       <c r="E6" s="26"/>
@@ -4131,15 +4629,15 @@
       <c r="G6" s="26"/>
       <c r="H6" s="26"/>
       <c r="I6" s="26"/>
-      <c r="J6" s="41"/>
+      <c r="J6" s="51"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="63" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="27"/>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="50" t="s">
         <v>37</v>
       </c>
       <c r="E7" s="26"/>
@@ -4147,15 +4645,15 @@
       <c r="G7" s="26"/>
       <c r="H7" s="26"/>
       <c r="I7" s="26"/>
-      <c r="J7" s="41"/>
+      <c r="J7" s="51"/>
     </row>
     <row r="8" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="63" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="26"/>
       <c r="C8" s="27"/>
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="50" t="s">
         <v>67</v>
       </c>
       <c r="E8" s="26"/>
@@ -4163,17 +4661,17 @@
       <c r="G8" s="26"/>
       <c r="H8" s="26"/>
       <c r="I8" s="26"/>
-      <c r="J8" s="41"/>
+      <c r="J8" s="51"/>
     </row>
     <row r="9" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="49" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="27"/>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="74" t="s">
         <v>62</v>
       </c>
       <c r="E9" s="26"/>
@@ -4181,15 +4679,15 @@
       <c r="G9" s="26"/>
       <c r="H9" s="26"/>
       <c r="I9" s="26"/>
-      <c r="J9" s="41"/>
+      <c r="J9" s="51"/>
     </row>
     <row r="10" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A10" s="57"/>
-      <c r="B10" s="59" t="s">
+      <c r="A10" s="65"/>
+      <c r="B10" s="49" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="27"/>
-      <c r="D10" s="40" t="s">
+      <c r="D10" s="50" t="s">
         <v>63</v>
       </c>
       <c r="E10" s="26"/>
@@ -4197,15 +4695,15 @@
       <c r="G10" s="26"/>
       <c r="H10" s="26"/>
       <c r="I10" s="26"/>
-      <c r="J10" s="41"/>
+      <c r="J10" s="51"/>
     </row>
     <row r="11" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A11" s="58"/>
-      <c r="B11" s="59" t="s">
+      <c r="A11" s="66"/>
+      <c r="B11" s="49" t="s">
         <v>64</v>
       </c>
       <c r="C11" s="27"/>
-      <c r="D11" s="42" t="s">
+      <c r="D11" s="74" t="s">
         <v>66</v>
       </c>
       <c r="E11" s="26"/>
@@ -4213,15 +4711,15 @@
       <c r="G11" s="26"/>
       <c r="H11" s="26"/>
       <c r="I11" s="26"/>
-      <c r="J11" s="41"/>
+      <c r="J11" s="51"/>
     </row>
     <row r="12" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="61"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="40" t="s">
+      <c r="B12" s="68"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="50" t="s">
         <v>65</v>
       </c>
       <c r="E12" s="26"/>
@@ -4229,21 +4727,21 @@
       <c r="G12" s="26"/>
       <c r="H12" s="26"/>
       <c r="I12" s="26"/>
-      <c r="J12" s="41"/>
+      <c r="J12" s="51"/>
     </row>
     <row r="13" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="36"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="71"/>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:10" ht="12.75" customHeight="1"/>
@@ -5234,16 +5732,14 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D2:E4"/>
-    <mergeCell ref="F2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D11:J11"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A1:C4"/>
     <mergeCell ref="A5:C5"/>
@@ -5253,14 +5749,16 @@
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D13:J13"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D2:E4"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="H2:H4"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0" footer="0"/>
@@ -5287,91 +5785,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
       <c r="D1" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="76" t="s">
+      <c r="E1" s="90" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76" t="s">
+      <c r="F1" s="90"/>
+      <c r="G1" s="90" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="77"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="91"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="105" t="s">
+      <c r="E2" s="92" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="78"/>
-      <c r="G2" s="79" t="s">
+      <c r="F2" s="93"/>
+      <c r="G2" s="94" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="80"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="95"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1">
-      <c r="A3" s="101"/>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="104" t="s">
+      <c r="A3" s="97"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="103" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="103"/>
-      <c r="G3" s="107" t="s">
+      <c r="F3" s="104"/>
+      <c r="G3" s="105" t="s">
         <v>71</v>
       </c>
-      <c r="H3" s="108"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="109"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="107"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="82"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83" t="s">
+      <c r="A4" s="99"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="83"/>
-      <c r="G4" s="84" t="s">
+      <c r="F4" s="100"/>
+      <c r="G4" s="101" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="85"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="102"/>
     </row>
     <row r="5" spans="1:10" ht="18" customHeight="1">
-      <c r="A5" s="88" t="s">
+      <c r="A5" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="91" t="s">
+      <c r="B5" s="80"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="92"/>
-      <c r="F5" s="91" t="s">
+      <c r="E5" s="83"/>
+      <c r="F5" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="92"/>
+      <c r="G5" s="83"/>
       <c r="H5" s="21" t="s">
         <v>6</v>
       </c>
@@ -5383,67 +5881,67 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="18" customHeight="1">
-      <c r="A6" s="48"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="29"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="70" t="s">
+      <c r="C6" s="39"/>
+      <c r="D6" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="71"/>
-      <c r="F6" s="70" t="s">
+      <c r="E6" s="37"/>
+      <c r="F6" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="G6" s="71"/>
-      <c r="H6" s="74">
+      <c r="G6" s="37"/>
+      <c r="H6" s="42">
         <v>45639</v>
       </c>
-      <c r="I6" s="63" t="s">
+      <c r="I6" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="66"/>
+      <c r="J6" s="46"/>
     </row>
     <row r="7" spans="1:10" ht="18" customHeight="1">
-      <c r="A7" s="48"/>
+      <c r="A7" s="58"/>
       <c r="B7" s="29"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="67"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="47"/>
     </row>
     <row r="8" spans="1:10" ht="18" customHeight="1">
-      <c r="A8" s="48"/>
+      <c r="A8" s="58"/>
       <c r="B8" s="29"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="67"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="47"/>
     </row>
     <row r="9" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A9" s="90" t="s">
+      <c r="A9" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="95" t="s">
+      <c r="B9" s="62"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="39"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="73"/>
     </row>
     <row r="10" spans="1:10" ht="21" customHeight="1">
-      <c r="A10" s="86" t="s">
+      <c r="A10" s="76" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="26"/>
@@ -5454,34 +5952,34 @@
       <c r="G10" s="26"/>
       <c r="H10" s="26"/>
       <c r="I10" s="26"/>
-      <c r="J10" s="41"/>
+      <c r="J10" s="51"/>
     </row>
     <row r="11" spans="1:10" ht="21" customHeight="1">
-      <c r="A11" s="96"/>
-      <c r="B11" s="97"/>
-      <c r="C11" s="97"/>
-      <c r="D11" s="97"/>
-      <c r="E11" s="97"/>
-      <c r="F11" s="97"/>
-      <c r="G11" s="97"/>
-      <c r="H11" s="97"/>
-      <c r="I11" s="97"/>
-      <c r="J11" s="98"/>
+      <c r="A11" s="85"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="87"/>
     </row>
     <row r="12" spans="1:10" ht="21" customHeight="1">
-      <c r="A12" s="88"/>
-      <c r="B12" s="106"/>
-      <c r="C12" s="106"/>
-      <c r="D12" s="106"/>
-      <c r="E12" s="106"/>
-      <c r="F12" s="106"/>
-      <c r="G12" s="106"/>
-      <c r="H12" s="106"/>
-      <c r="I12" s="106"/>
-      <c r="J12" s="99"/>
+      <c r="A12" s="79"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="88"/>
     </row>
     <row r="13" spans="1:10" ht="21" customHeight="1">
-      <c r="A13" s="48"/>
+      <c r="A13" s="58"/>
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
       <c r="D13" s="29"/>
@@ -5490,10 +5988,10 @@
       <c r="G13" s="29"/>
       <c r="H13" s="29"/>
       <c r="I13" s="29"/>
-      <c r="J13" s="99"/>
+      <c r="J13" s="88"/>
     </row>
     <row r="14" spans="1:10" ht="21" customHeight="1">
-      <c r="A14" s="48"/>
+      <c r="A14" s="58"/>
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
       <c r="D14" s="29"/>
@@ -5502,10 +6000,10 @@
       <c r="G14" s="29"/>
       <c r="H14" s="29"/>
       <c r="I14" s="29"/>
-      <c r="J14" s="99"/>
+      <c r="J14" s="88"/>
     </row>
     <row r="15" spans="1:10" ht="21" customHeight="1">
-      <c r="A15" s="48"/>
+      <c r="A15" s="58"/>
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
       <c r="D15" s="29"/>
@@ -5514,10 +6012,10 @@
       <c r="G15" s="29"/>
       <c r="H15" s="29"/>
       <c r="I15" s="29"/>
-      <c r="J15" s="99"/>
+      <c r="J15" s="88"/>
     </row>
     <row r="16" spans="1:10" ht="21" customHeight="1">
-      <c r="A16" s="48"/>
+      <c r="A16" s="58"/>
       <c r="B16" s="29"/>
       <c r="C16" s="29"/>
       <c r="D16" s="29"/>
@@ -5526,10 +6024,10 @@
       <c r="G16" s="29"/>
       <c r="H16" s="29"/>
       <c r="I16" s="29"/>
-      <c r="J16" s="99"/>
+      <c r="J16" s="88"/>
     </row>
     <row r="17" spans="1:10" ht="21" customHeight="1">
-      <c r="A17" s="48"/>
+      <c r="A17" s="58"/>
       <c r="B17" s="29"/>
       <c r="C17" s="29"/>
       <c r="D17" s="29"/>
@@ -5538,10 +6036,10 @@
       <c r="G17" s="29"/>
       <c r="H17" s="29"/>
       <c r="I17" s="29"/>
-      <c r="J17" s="99"/>
+      <c r="J17" s="88"/>
     </row>
     <row r="18" spans="1:10" ht="21" customHeight="1">
-      <c r="A18" s="48"/>
+      <c r="A18" s="58"/>
       <c r="B18" s="29"/>
       <c r="C18" s="29"/>
       <c r="D18" s="29"/>
@@ -5550,10 +6048,10 @@
       <c r="G18" s="29"/>
       <c r="H18" s="29"/>
       <c r="I18" s="29"/>
-      <c r="J18" s="99"/>
+      <c r="J18" s="88"/>
     </row>
     <row r="19" spans="1:10" ht="21" customHeight="1">
-      <c r="A19" s="48"/>
+      <c r="A19" s="58"/>
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
       <c r="D19" s="29"/>
@@ -5562,10 +6060,10 @@
       <c r="G19" s="29"/>
       <c r="H19" s="29"/>
       <c r="I19" s="29"/>
-      <c r="J19" s="99"/>
+      <c r="J19" s="88"/>
     </row>
     <row r="20" spans="1:10" ht="21" customHeight="1">
-      <c r="A20" s="48"/>
+      <c r="A20" s="58"/>
       <c r="B20" s="29"/>
       <c r="C20" s="29"/>
       <c r="D20" s="29"/>
@@ -5574,10 +6072,10 @@
       <c r="G20" s="29"/>
       <c r="H20" s="29"/>
       <c r="I20" s="29"/>
-      <c r="J20" s="99"/>
+      <c r="J20" s="88"/>
     </row>
     <row r="21" spans="1:10" ht="21" customHeight="1">
-      <c r="A21" s="48"/>
+      <c r="A21" s="58"/>
       <c r="B21" s="29"/>
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
@@ -5586,10 +6084,10 @@
       <c r="G21" s="29"/>
       <c r="H21" s="29"/>
       <c r="I21" s="29"/>
-      <c r="J21" s="99"/>
+      <c r="J21" s="88"/>
     </row>
     <row r="22" spans="1:10" ht="21" customHeight="1">
-      <c r="A22" s="48"/>
+      <c r="A22" s="58"/>
       <c r="B22" s="29"/>
       <c r="C22" s="29"/>
       <c r="D22" s="29"/>
@@ -5598,10 +6096,10 @@
       <c r="G22" s="29"/>
       <c r="H22" s="29"/>
       <c r="I22" s="29"/>
-      <c r="J22" s="99"/>
+      <c r="J22" s="88"/>
     </row>
     <row r="23" spans="1:10" ht="21" customHeight="1">
-      <c r="A23" s="48"/>
+      <c r="A23" s="58"/>
       <c r="B23" s="29"/>
       <c r="C23" s="29"/>
       <c r="D23" s="29"/>
@@ -5610,10 +6108,10 @@
       <c r="G23" s="29"/>
       <c r="H23" s="29"/>
       <c r="I23" s="29"/>
-      <c r="J23" s="99"/>
+      <c r="J23" s="88"/>
     </row>
     <row r="24" spans="1:10" ht="21" customHeight="1">
-      <c r="A24" s="48"/>
+      <c r="A24" s="58"/>
       <c r="B24" s="29"/>
       <c r="C24" s="29"/>
       <c r="D24" s="29"/>
@@ -5622,10 +6120,10 @@
       <c r="G24" s="29"/>
       <c r="H24" s="29"/>
       <c r="I24" s="29"/>
-      <c r="J24" s="99"/>
+      <c r="J24" s="88"/>
     </row>
     <row r="25" spans="1:10" ht="21" customHeight="1">
-      <c r="A25" s="48"/>
+      <c r="A25" s="58"/>
       <c r="B25" s="29"/>
       <c r="C25" s="29"/>
       <c r="D25" s="29"/>
@@ -5634,10 +6132,10 @@
       <c r="G25" s="29"/>
       <c r="H25" s="29"/>
       <c r="I25" s="29"/>
-      <c r="J25" s="99"/>
+      <c r="J25" s="88"/>
     </row>
     <row r="26" spans="1:10" ht="21" customHeight="1">
-      <c r="A26" s="48"/>
+      <c r="A26" s="58"/>
       <c r="B26" s="29"/>
       <c r="C26" s="29"/>
       <c r="D26" s="29"/>
@@ -5646,10 +6144,10 @@
       <c r="G26" s="29"/>
       <c r="H26" s="29"/>
       <c r="I26" s="29"/>
-      <c r="J26" s="99"/>
+      <c r="J26" s="88"/>
     </row>
     <row r="27" spans="1:10" ht="21" customHeight="1">
-      <c r="A27" s="48"/>
+      <c r="A27" s="58"/>
       <c r="B27" s="29"/>
       <c r="C27" s="29"/>
       <c r="D27" s="29"/>
@@ -5658,10 +6156,10 @@
       <c r="G27" s="29"/>
       <c r="H27" s="29"/>
       <c r="I27" s="29"/>
-      <c r="J27" s="99"/>
+      <c r="J27" s="88"/>
     </row>
     <row r="28" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A28" s="48"/>
+      <c r="A28" s="58"/>
       <c r="B28" s="29"/>
       <c r="C28" s="29"/>
       <c r="D28" s="29"/>
@@ -5670,10 +6168,10 @@
       <c r="G28" s="29"/>
       <c r="H28" s="29"/>
       <c r="I28" s="29"/>
-      <c r="J28" s="99"/>
+      <c r="J28" s="88"/>
     </row>
     <row r="29" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A29" s="86" t="s">
+      <c r="A29" s="76" t="s">
         <v>22</v>
       </c>
       <c r="B29" s="26"/>
@@ -5684,15 +6182,15 @@
       <c r="G29" s="26"/>
       <c r="H29" s="26"/>
       <c r="I29" s="26"/>
-      <c r="J29" s="41"/>
+      <c r="J29" s="51"/>
     </row>
     <row r="30" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A30" s="86" t="s">
+      <c r="A30" s="76" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="26"/>
       <c r="C30" s="27"/>
-      <c r="D30" s="40" t="s">
+      <c r="D30" s="50" t="s">
         <v>46</v>
       </c>
       <c r="E30" s="26"/>
@@ -5707,7 +6205,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A31" s="86" t="s">
+      <c r="A31" s="76" t="s">
         <v>25</v>
       </c>
       <c r="B31" s="26"/>
@@ -5724,14 +6222,14 @@
       <c r="G31" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H31" s="87" t="s">
+      <c r="H31" s="77" t="s">
         <v>17</v>
       </c>
       <c r="I31" s="26"/>
-      <c r="J31" s="41"/>
+      <c r="J31" s="51"/>
     </row>
     <row r="32" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A32" s="94" t="s">
+      <c r="A32" s="75" t="s">
         <v>39</v>
       </c>
       <c r="B32" s="26"/>
@@ -5744,26 +6242,26 @@
       <c r="G32" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="H32" s="40" t="s">
+      <c r="H32" s="50" t="s">
         <v>43</v>
       </c>
       <c r="I32" s="26"/>
-      <c r="J32" s="41"/>
+      <c r="J32" s="51"/>
     </row>
     <row r="33" spans="1:10" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A33" s="93"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="44"/>
+      <c r="A33" s="78"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="54"/>
       <c r="D33" s="19"/>
       <c r="E33" s="19"/>
       <c r="F33" s="20"/>
       <c r="G33" s="20"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="36"/>
+      <c r="H33" s="70"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="71"/>
     </row>
     <row r="34" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A34" s="86" t="s">
+      <c r="A34" s="76" t="s">
         <v>22</v>
       </c>
       <c r="B34" s="26"/>
@@ -5774,15 +6272,15 @@
       <c r="G34" s="26"/>
       <c r="H34" s="26"/>
       <c r="I34" s="26"/>
-      <c r="J34" s="41"/>
+      <c r="J34" s="51"/>
     </row>
     <row r="35" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A35" s="86" t="s">
+      <c r="A35" s="76" t="s">
         <v>23</v>
       </c>
       <c r="B35" s="26"/>
       <c r="C35" s="27"/>
-      <c r="D35" s="40" t="s">
+      <c r="D35" s="50" t="s">
         <v>47</v>
       </c>
       <c r="E35" s="26"/>
@@ -5797,7 +6295,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A36" s="86" t="s">
+      <c r="A36" s="76" t="s">
         <v>25</v>
       </c>
       <c r="B36" s="26"/>
@@ -5814,14 +6312,14 @@
       <c r="G36" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H36" s="87" t="s">
+      <c r="H36" s="77" t="s">
         <v>17</v>
       </c>
       <c r="I36" s="26"/>
-      <c r="J36" s="41"/>
+      <c r="J36" s="51"/>
     </row>
     <row r="37" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A37" s="94" t="s">
+      <c r="A37" s="75" t="s">
         <v>40</v>
       </c>
       <c r="B37" s="26"/>
@@ -5834,26 +6332,26 @@
       <c r="G37" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="H37" s="40" t="s">
+      <c r="H37" s="50" t="s">
         <v>44</v>
       </c>
       <c r="I37" s="26"/>
-      <c r="J37" s="41"/>
+      <c r="J37" s="51"/>
     </row>
     <row r="38" spans="1:10" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A38" s="93"/>
-      <c r="B38" s="35"/>
-      <c r="C38" s="44"/>
+      <c r="A38" s="78"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="54"/>
       <c r="D38" s="19"/>
       <c r="E38" s="19"/>
       <c r="F38" s="20"/>
       <c r="G38" s="20"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="36"/>
+      <c r="H38" s="70"/>
+      <c r="I38" s="53"/>
+      <c r="J38" s="71"/>
     </row>
     <row r="39" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A39" s="86" t="s">
+      <c r="A39" s="76" t="s">
         <v>22</v>
       </c>
       <c r="B39" s="26"/>
@@ -5864,15 +6362,15 @@
       <c r="G39" s="26"/>
       <c r="H39" s="26"/>
       <c r="I39" s="26"/>
-      <c r="J39" s="41"/>
+      <c r="J39" s="51"/>
     </row>
     <row r="40" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A40" s="86" t="s">
+      <c r="A40" s="76" t="s">
         <v>23</v>
       </c>
       <c r="B40" s="26"/>
       <c r="C40" s="27"/>
-      <c r="D40" s="40" t="s">
+      <c r="D40" s="50" t="s">
         <v>55</v>
       </c>
       <c r="E40" s="26"/>
@@ -5887,7 +6385,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A41" s="86" t="s">
+      <c r="A41" s="76" t="s">
         <v>25</v>
       </c>
       <c r="B41" s="26"/>
@@ -5904,14 +6402,14 @@
       <c r="G41" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H41" s="87" t="s">
+      <c r="H41" s="77" t="s">
         <v>17</v>
       </c>
       <c r="I41" s="26"/>
-      <c r="J41" s="41"/>
+      <c r="J41" s="51"/>
     </row>
     <row r="42" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A42" s="94" t="s">
+      <c r="A42" s="75" t="s">
         <v>41</v>
       </c>
       <c r="B42" s="26"/>
@@ -5924,23 +6422,23 @@
       <c r="G42" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="H42" s="40" t="s">
+      <c r="H42" s="50" t="s">
         <v>45</v>
       </c>
       <c r="I42" s="26"/>
-      <c r="J42" s="41"/>
+      <c r="J42" s="51"/>
     </row>
     <row r="43" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A43" s="94"/>
+      <c r="A43" s="75"/>
       <c r="B43" s="26"/>
       <c r="C43" s="27"/>
       <c r="D43" s="17"/>
       <c r="E43" s="17"/>
       <c r="F43" s="18"/>
       <c r="G43" s="18"/>
-      <c r="H43" s="40"/>
+      <c r="H43" s="50"/>
       <c r="I43" s="26"/>
-      <c r="J43" s="41"/>
+      <c r="J43" s="51"/>
     </row>
     <row r="44" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="45" spans="1:10" ht="12.75" customHeight="1"/>
@@ -6921,6 +7419,40 @@
     <row r="1020" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="A2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="D6:E8"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="F6:G8"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="A5:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A11:J28"/>
     <mergeCell ref="A43:C43"/>
     <mergeCell ref="H43:J43"/>
     <mergeCell ref="A42:C42"/>
@@ -6937,40 +7469,6 @@
     <mergeCell ref="H37:J37"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="D35:H35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="F6:G8"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="A5:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A11:J28"/>
-    <mergeCell ref="D6:E8"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="A2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:J3"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -6995,19 +7493,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="69" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="54"/>
-      <c r="F1" s="69" t="s">
+      <c r="E1" s="35"/>
+      <c r="F1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="54"/>
+      <c r="G1" s="35"/>
       <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
@@ -7019,48 +7517,48 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="48"/>
+      <c r="A2" s="58"/>
       <c r="B2" s="29"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="70" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="70" t="s">
+      <c r="E2" s="37"/>
+      <c r="F2" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="71"/>
-      <c r="H2" s="74">
+      <c r="G2" s="37"/>
+      <c r="H2" s="42">
         <v>45639</v>
       </c>
-      <c r="I2" s="63" t="s">
+      <c r="I2" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="66"/>
+      <c r="J2" s="46"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="48"/>
+      <c r="A3" s="58"/>
       <c r="B3" s="29"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="67"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="47"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="68"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="48"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>
@@ -8395,4 +8893,2078 @@
   <pageSetup paperSize="9" orientation="landscape"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D76AE51-9DB2-467F-AAE4-6B4DFD0FB44A}">
+  <dimension ref="A1:Z1000"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="6" width="2.85546875" style="116" customWidth="1"/>
+    <col min="7" max="20" width="8.140625" style="116" customWidth="1"/>
+    <col min="21" max="26" width="8.7109375" style="116" customWidth="1"/>
+    <col min="27" max="16384" width="14.42578125" style="116"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="18" customHeight="1">
+      <c r="A1" s="109" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="112" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="112" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="112" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="114"/>
+      <c r="Q1" s="112" t="s">
+        <v>7</v>
+      </c>
+      <c r="R1" s="114"/>
+      <c r="S1" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" s="115"/>
+    </row>
+    <row r="2" spans="1:26" ht="18" customHeight="1">
+      <c r="A2" s="117"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="120" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="120" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="121"/>
+      <c r="M2" s="121"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="123">
+        <v>45643</v>
+      </c>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="120" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" s="122"/>
+      <c r="S2" s="120"/>
+      <c r="T2" s="124"/>
+    </row>
+    <row r="3" spans="1:26" ht="18" customHeight="1">
+      <c r="A3" s="117"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="118"/>
+      <c r="M3" s="118"/>
+      <c r="N3" s="119"/>
+      <c r="O3" s="125"/>
+      <c r="P3" s="119"/>
+      <c r="Q3" s="125"/>
+      <c r="R3" s="119"/>
+      <c r="S3" s="125"/>
+      <c r="T3" s="126"/>
+    </row>
+    <row r="4" spans="1:26" ht="18" customHeight="1" thickBot="1">
+      <c r="A4" s="127"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="129"/>
+      <c r="K4" s="130"/>
+      <c r="L4" s="128"/>
+      <c r="M4" s="128"/>
+      <c r="N4" s="129"/>
+      <c r="O4" s="130"/>
+      <c r="P4" s="129"/>
+      <c r="Q4" s="130"/>
+      <c r="R4" s="129"/>
+      <c r="S4" s="130"/>
+      <c r="T4" s="131"/>
+    </row>
+    <row r="5" spans="1:26" ht="18" customHeight="1">
+      <c r="A5" s="132" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="113"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="133" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="113"/>
+      <c r="K5" s="113"/>
+      <c r="L5" s="113"/>
+      <c r="M5" s="113"/>
+      <c r="N5" s="113"/>
+      <c r="O5" s="113"/>
+      <c r="P5" s="113"/>
+      <c r="Q5" s="113"/>
+      <c r="R5" s="113"/>
+      <c r="S5" s="113"/>
+      <c r="T5" s="115"/>
+    </row>
+    <row r="6" spans="1:26" ht="18" customHeight="1">
+      <c r="A6" s="134" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="135"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="135"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="136"/>
+      <c r="G6" s="137" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" s="135"/>
+      <c r="I6" s="135"/>
+      <c r="J6" s="135"/>
+      <c r="K6" s="135"/>
+      <c r="L6" s="135"/>
+      <c r="M6" s="135"/>
+      <c r="N6" s="135"/>
+      <c r="O6" s="135"/>
+      <c r="P6" s="135"/>
+      <c r="Q6" s="135"/>
+      <c r="R6" s="135"/>
+      <c r="S6" s="135"/>
+      <c r="T6" s="138"/>
+    </row>
+    <row r="7" spans="1:26" ht="18" customHeight="1">
+      <c r="A7" s="134" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="135"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="137" t="s">
+        <v>96</v>
+      </c>
+      <c r="H7" s="135"/>
+      <c r="I7" s="135"/>
+      <c r="J7" s="135"/>
+      <c r="K7" s="135"/>
+      <c r="L7" s="135"/>
+      <c r="M7" s="135"/>
+      <c r="N7" s="135"/>
+      <c r="O7" s="135"/>
+      <c r="P7" s="135"/>
+      <c r="Q7" s="135"/>
+      <c r="R7" s="135"/>
+      <c r="S7" s="135"/>
+      <c r="T7" s="138"/>
+    </row>
+    <row r="8" spans="1:26" ht="7.5" customHeight="1">
+      <c r="A8" s="139"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="140"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="140"/>
+      <c r="F8" s="140"/>
+      <c r="G8" s="140"/>
+      <c r="H8" s="140"/>
+      <c r="I8" s="140"/>
+      <c r="J8" s="140"/>
+      <c r="K8" s="140"/>
+      <c r="L8" s="140"/>
+      <c r="M8" s="140"/>
+      <c r="N8" s="140"/>
+      <c r="O8" s="140"/>
+      <c r="P8" s="140"/>
+      <c r="Q8" s="140"/>
+      <c r="R8" s="140"/>
+      <c r="S8" s="140"/>
+      <c r="T8" s="141"/>
+    </row>
+    <row r="9" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A9" s="142"/>
+      <c r="B9" s="143"/>
+      <c r="C9" s="144" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="145"/>
+      <c r="E9" s="145" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="145"/>
+      <c r="G9" s="146"/>
+      <c r="H9" s="145"/>
+      <c r="I9" s="145"/>
+      <c r="J9" s="145"/>
+      <c r="K9" s="146"/>
+      <c r="L9" s="143"/>
+      <c r="M9" s="143"/>
+      <c r="N9" s="143"/>
+      <c r="O9" s="143"/>
+      <c r="P9" s="143"/>
+      <c r="Q9" s="143"/>
+      <c r="R9" s="143"/>
+      <c r="S9" s="143"/>
+      <c r="T9" s="147"/>
+      <c r="U9" s="143"/>
+      <c r="V9" s="143"/>
+      <c r="W9" s="143"/>
+      <c r="X9" s="143"/>
+      <c r="Y9" s="143"/>
+      <c r="Z9" s="143"/>
+    </row>
+    <row r="10" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A10" s="142"/>
+      <c r="B10" s="143"/>
+      <c r="C10" s="148"/>
+      <c r="D10" s="143"/>
+      <c r="E10" s="143" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="143"/>
+      <c r="G10" s="149"/>
+      <c r="H10" s="143"/>
+      <c r="I10" s="143"/>
+      <c r="J10" s="143"/>
+      <c r="K10" s="149"/>
+      <c r="L10" s="143"/>
+      <c r="M10" s="143"/>
+      <c r="N10" s="143"/>
+      <c r="O10" s="143"/>
+      <c r="P10" s="143"/>
+      <c r="Q10" s="143"/>
+      <c r="R10" s="143"/>
+      <c r="S10" s="143"/>
+      <c r="T10" s="147"/>
+      <c r="U10" s="143"/>
+      <c r="V10" s="143"/>
+      <c r="W10" s="143"/>
+      <c r="X10" s="143"/>
+      <c r="Y10" s="143"/>
+      <c r="Z10" s="143"/>
+    </row>
+    <row r="11" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A11" s="142"/>
+      <c r="B11" s="143"/>
+      <c r="C11" s="148"/>
+      <c r="D11" s="143"/>
+      <c r="E11" s="143" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="143"/>
+      <c r="G11" s="149"/>
+      <c r="H11" s="143"/>
+      <c r="I11" s="143"/>
+      <c r="J11" s="143"/>
+      <c r="K11" s="149"/>
+      <c r="L11" s="143"/>
+      <c r="M11" s="143"/>
+      <c r="N11" s="143"/>
+      <c r="O11" s="143"/>
+      <c r="P11" s="143"/>
+      <c r="Q11" s="143"/>
+      <c r="R11" s="143"/>
+      <c r="S11" s="143"/>
+      <c r="T11" s="147"/>
+      <c r="U11" s="143"/>
+      <c r="V11" s="143"/>
+      <c r="W11" s="143"/>
+      <c r="X11" s="143"/>
+      <c r="Y11" s="143"/>
+      <c r="Z11" s="143"/>
+    </row>
+    <row r="12" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A12" s="142"/>
+      <c r="B12" s="143"/>
+      <c r="C12" s="148"/>
+      <c r="D12" s="143"/>
+      <c r="E12" s="143" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="143"/>
+      <c r="G12" s="149"/>
+      <c r="H12" s="143"/>
+      <c r="I12" s="143"/>
+      <c r="J12" s="143"/>
+      <c r="K12" s="149"/>
+      <c r="L12" s="143"/>
+      <c r="M12" s="143"/>
+      <c r="N12" s="143"/>
+      <c r="O12" s="143"/>
+      <c r="P12" s="143"/>
+      <c r="Q12" s="143"/>
+      <c r="R12" s="143"/>
+      <c r="S12" s="143"/>
+      <c r="T12" s="147"/>
+      <c r="U12" s="143"/>
+      <c r="V12" s="143"/>
+      <c r="W12" s="143"/>
+      <c r="X12" s="143"/>
+      <c r="Y12" s="143"/>
+      <c r="Z12" s="143"/>
+    </row>
+    <row r="13" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A13" s="142"/>
+      <c r="B13" s="143"/>
+      <c r="C13" s="150"/>
+      <c r="D13" s="151"/>
+      <c r="E13" s="151" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="151"/>
+      <c r="G13" s="152"/>
+      <c r="H13" s="151"/>
+      <c r="I13" s="151"/>
+      <c r="J13" s="151"/>
+      <c r="K13" s="152"/>
+      <c r="L13" s="143"/>
+      <c r="M13" s="143"/>
+      <c r="N13" s="143"/>
+      <c r="O13" s="143"/>
+      <c r="P13" s="143"/>
+      <c r="Q13" s="143"/>
+      <c r="R13" s="143"/>
+      <c r="S13" s="143"/>
+      <c r="T13" s="147"/>
+      <c r="U13" s="143"/>
+      <c r="V13" s="143"/>
+      <c r="W13" s="143"/>
+      <c r="X13" s="143"/>
+      <c r="Y13" s="143"/>
+      <c r="Z13" s="143"/>
+    </row>
+    <row r="14" spans="1:26" ht="8.25" customHeight="1">
+      <c r="A14" s="139"/>
+      <c r="B14" s="140"/>
+      <c r="C14" s="140"/>
+      <c r="D14" s="140"/>
+      <c r="E14" s="140"/>
+      <c r="F14" s="140"/>
+      <c r="G14" s="140"/>
+      <c r="H14" s="140"/>
+      <c r="I14" s="140"/>
+      <c r="J14" s="140"/>
+      <c r="K14" s="140"/>
+      <c r="L14" s="140"/>
+      <c r="M14" s="140"/>
+      <c r="N14" s="140"/>
+      <c r="O14" s="140"/>
+      <c r="P14" s="140"/>
+      <c r="Q14" s="140"/>
+      <c r="R14" s="140"/>
+      <c r="S14" s="140"/>
+      <c r="T14" s="141"/>
+    </row>
+    <row r="15" spans="1:26" ht="18.75" customHeight="1">
+      <c r="A15" s="134" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="136"/>
+      <c r="C15" s="153" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="136"/>
+      <c r="E15" s="154" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="136"/>
+      <c r="G15" s="154" t="s">
+        <v>86</v>
+      </c>
+      <c r="H15" s="135"/>
+      <c r="I15" s="136"/>
+      <c r="J15" s="154" t="s">
+        <v>87</v>
+      </c>
+      <c r="K15" s="136"/>
+      <c r="L15" s="154" t="s">
+        <v>88</v>
+      </c>
+      <c r="M15" s="135"/>
+      <c r="N15" s="136"/>
+      <c r="O15" s="154" t="s">
+        <v>89</v>
+      </c>
+      <c r="P15" s="135"/>
+      <c r="Q15" s="136"/>
+      <c r="R15" s="155" t="s">
+        <v>90</v>
+      </c>
+      <c r="S15" s="155" t="s">
+        <v>91</v>
+      </c>
+      <c r="T15" s="156" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="63.75" customHeight="1">
+      <c r="A16" s="157">
+        <v>1</v>
+      </c>
+      <c r="B16" s="136"/>
+      <c r="C16" s="158" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="136"/>
+      <c r="E16" s="158" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="136"/>
+      <c r="G16" s="159" t="s">
+        <v>97</v>
+      </c>
+      <c r="H16" s="135"/>
+      <c r="I16" s="136"/>
+      <c r="J16" s="159" t="s">
+        <v>95</v>
+      </c>
+      <c r="K16" s="136"/>
+      <c r="L16" s="174" t="s">
+        <v>99</v>
+      </c>
+      <c r="M16" s="173"/>
+      <c r="N16" s="173"/>
+      <c r="O16" s="160" t="s">
+        <v>98</v>
+      </c>
+      <c r="P16" s="135"/>
+      <c r="Q16" s="136"/>
+      <c r="R16" s="161"/>
+      <c r="S16" s="161"/>
+      <c r="T16" s="162"/>
+      <c r="U16" s="163"/>
+      <c r="V16" s="163"/>
+      <c r="W16" s="163"/>
+      <c r="X16" s="163"/>
+      <c r="Y16" s="163"/>
+      <c r="Z16" s="163"/>
+    </row>
+    <row r="17" spans="1:26" ht="63.75" customHeight="1">
+      <c r="A17" s="157">
+        <v>2</v>
+      </c>
+      <c r="B17" s="136"/>
+      <c r="C17" s="158" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="136"/>
+      <c r="E17" s="158" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="136"/>
+      <c r="G17" s="159" t="s">
+        <v>106</v>
+      </c>
+      <c r="H17" s="135"/>
+      <c r="I17" s="136"/>
+      <c r="J17" s="159" t="s">
+        <v>95</v>
+      </c>
+      <c r="K17" s="136"/>
+      <c r="L17" s="160" t="s">
+        <v>100</v>
+      </c>
+      <c r="M17" s="135"/>
+      <c r="N17" s="136"/>
+      <c r="O17" s="160" t="s">
+        <v>103</v>
+      </c>
+      <c r="P17" s="135"/>
+      <c r="Q17" s="136"/>
+      <c r="R17" s="161"/>
+      <c r="S17" s="161"/>
+      <c r="T17" s="162"/>
+      <c r="U17" s="163"/>
+      <c r="V17" s="163"/>
+      <c r="W17" s="163"/>
+      <c r="X17" s="163"/>
+      <c r="Y17" s="163"/>
+      <c r="Z17" s="163"/>
+    </row>
+    <row r="18" spans="1:26" ht="63.75" customHeight="1">
+      <c r="A18" s="157">
+        <v>3</v>
+      </c>
+      <c r="B18" s="136"/>
+      <c r="C18" s="158" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="136"/>
+      <c r="E18" s="158" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" s="136"/>
+      <c r="G18" s="159" t="s">
+        <v>106</v>
+      </c>
+      <c r="H18" s="135"/>
+      <c r="I18" s="136"/>
+      <c r="J18" s="159" t="s">
+        <v>95</v>
+      </c>
+      <c r="K18" s="136"/>
+      <c r="L18" s="160" t="s">
+        <v>101</v>
+      </c>
+      <c r="M18" s="135"/>
+      <c r="N18" s="136"/>
+      <c r="O18" s="160" t="s">
+        <v>104</v>
+      </c>
+      <c r="P18" s="135"/>
+      <c r="Q18" s="136"/>
+      <c r="R18" s="161"/>
+      <c r="S18" s="161"/>
+      <c r="T18" s="162"/>
+      <c r="U18" s="163"/>
+      <c r="V18" s="163"/>
+      <c r="W18" s="163"/>
+      <c r="X18" s="163"/>
+      <c r="Y18" s="163"/>
+      <c r="Z18" s="163"/>
+    </row>
+    <row r="19" spans="1:26" ht="63.75" customHeight="1">
+      <c r="A19" s="157">
+        <v>4</v>
+      </c>
+      <c r="B19" s="136"/>
+      <c r="C19" s="158" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="136"/>
+      <c r="E19" s="158" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="136"/>
+      <c r="G19" s="159" t="s">
+        <v>106</v>
+      </c>
+      <c r="H19" s="135"/>
+      <c r="I19" s="136"/>
+      <c r="J19" s="159" t="s">
+        <v>95</v>
+      </c>
+      <c r="K19" s="136"/>
+      <c r="L19" s="160" t="s">
+        <v>102</v>
+      </c>
+      <c r="M19" s="135"/>
+      <c r="N19" s="136"/>
+      <c r="O19" s="160" t="s">
+        <v>105</v>
+      </c>
+      <c r="P19" s="135"/>
+      <c r="Q19" s="136"/>
+      <c r="R19" s="161"/>
+      <c r="S19" s="161"/>
+      <c r="T19" s="162"/>
+      <c r="U19" s="163"/>
+      <c r="V19" s="163"/>
+      <c r="W19" s="163"/>
+      <c r="X19" s="163"/>
+      <c r="Y19" s="163"/>
+      <c r="Z19" s="163"/>
+    </row>
+    <row r="20" spans="1:26" ht="63.75" customHeight="1">
+      <c r="A20" s="157"/>
+      <c r="B20" s="136"/>
+      <c r="C20" s="158"/>
+      <c r="D20" s="136"/>
+      <c r="E20" s="158"/>
+      <c r="F20" s="136"/>
+      <c r="G20" s="159"/>
+      <c r="H20" s="135"/>
+      <c r="I20" s="136"/>
+      <c r="J20" s="159"/>
+      <c r="K20" s="136"/>
+      <c r="L20" s="160"/>
+      <c r="M20" s="135"/>
+      <c r="N20" s="136"/>
+      <c r="O20" s="160"/>
+      <c r="P20" s="135"/>
+      <c r="Q20" s="136"/>
+      <c r="R20" s="161"/>
+      <c r="S20" s="161"/>
+      <c r="T20" s="162"/>
+      <c r="U20" s="163"/>
+      <c r="V20" s="163"/>
+      <c r="W20" s="163"/>
+      <c r="X20" s="163"/>
+      <c r="Y20" s="163"/>
+      <c r="Z20" s="163"/>
+    </row>
+    <row r="21" spans="1:26" ht="63.75" customHeight="1">
+      <c r="A21" s="157"/>
+      <c r="B21" s="136"/>
+      <c r="C21" s="158"/>
+      <c r="D21" s="136"/>
+      <c r="E21" s="158"/>
+      <c r="F21" s="136"/>
+      <c r="G21" s="159"/>
+      <c r="H21" s="135"/>
+      <c r="I21" s="136"/>
+      <c r="J21" s="159"/>
+      <c r="K21" s="136"/>
+      <c r="L21" s="160"/>
+      <c r="M21" s="135"/>
+      <c r="N21" s="136"/>
+      <c r="O21" s="160"/>
+      <c r="P21" s="135"/>
+      <c r="Q21" s="136"/>
+      <c r="R21" s="161"/>
+      <c r="S21" s="161"/>
+      <c r="T21" s="162"/>
+      <c r="U21" s="163"/>
+      <c r="V21" s="163"/>
+      <c r="W21" s="163"/>
+      <c r="X21" s="163"/>
+      <c r="Y21" s="163"/>
+      <c r="Z21" s="163"/>
+    </row>
+    <row r="22" spans="1:26" ht="63.75" customHeight="1">
+      <c r="A22" s="157"/>
+      <c r="B22" s="136"/>
+      <c r="C22" s="158"/>
+      <c r="D22" s="136"/>
+      <c r="E22" s="158"/>
+      <c r="F22" s="136"/>
+      <c r="G22" s="159"/>
+      <c r="H22" s="135"/>
+      <c r="I22" s="136"/>
+      <c r="J22" s="159"/>
+      <c r="K22" s="136"/>
+      <c r="L22" s="160"/>
+      <c r="M22" s="135"/>
+      <c r="N22" s="136"/>
+      <c r="O22" s="160"/>
+      <c r="P22" s="135"/>
+      <c r="Q22" s="136"/>
+      <c r="R22" s="161"/>
+      <c r="S22" s="161"/>
+      <c r="T22" s="162"/>
+      <c r="U22" s="163"/>
+      <c r="V22" s="163"/>
+      <c r="W22" s="163"/>
+      <c r="X22" s="163"/>
+      <c r="Y22" s="163"/>
+      <c r="Z22" s="163"/>
+    </row>
+    <row r="23" spans="1:26" ht="63.75" customHeight="1">
+      <c r="A23" s="157"/>
+      <c r="B23" s="136"/>
+      <c r="C23" s="158"/>
+      <c r="D23" s="136"/>
+      <c r="E23" s="158"/>
+      <c r="F23" s="136"/>
+      <c r="G23" s="159"/>
+      <c r="H23" s="135"/>
+      <c r="I23" s="136"/>
+      <c r="J23" s="159"/>
+      <c r="K23" s="136"/>
+      <c r="L23" s="160"/>
+      <c r="M23" s="135"/>
+      <c r="N23" s="136"/>
+      <c r="O23" s="160"/>
+      <c r="P23" s="135"/>
+      <c r="Q23" s="136"/>
+      <c r="R23" s="161"/>
+      <c r="S23" s="161"/>
+      <c r="T23" s="162"/>
+      <c r="U23" s="163"/>
+      <c r="V23" s="163"/>
+      <c r="W23" s="163"/>
+      <c r="X23" s="163"/>
+      <c r="Y23" s="163"/>
+      <c r="Z23" s="163"/>
+    </row>
+    <row r="24" spans="1:26" ht="63.75" customHeight="1">
+      <c r="A24" s="157"/>
+      <c r="B24" s="136"/>
+      <c r="C24" s="158"/>
+      <c r="D24" s="136"/>
+      <c r="E24" s="158"/>
+      <c r="F24" s="136"/>
+      <c r="G24" s="159"/>
+      <c r="H24" s="135"/>
+      <c r="I24" s="136"/>
+      <c r="J24" s="159"/>
+      <c r="K24" s="136"/>
+      <c r="L24" s="160"/>
+      <c r="M24" s="135"/>
+      <c r="N24" s="136"/>
+      <c r="O24" s="160"/>
+      <c r="P24" s="135"/>
+      <c r="Q24" s="136"/>
+      <c r="R24" s="161"/>
+      <c r="S24" s="161"/>
+      <c r="T24" s="162"/>
+      <c r="U24" s="163"/>
+      <c r="V24" s="163"/>
+      <c r="W24" s="163"/>
+      <c r="X24" s="163"/>
+      <c r="Y24" s="163"/>
+      <c r="Z24" s="163"/>
+    </row>
+    <row r="25" spans="1:26" ht="63.75" customHeight="1">
+      <c r="A25" s="157"/>
+      <c r="B25" s="136"/>
+      <c r="C25" s="158"/>
+      <c r="D25" s="136"/>
+      <c r="E25" s="158"/>
+      <c r="F25" s="136"/>
+      <c r="G25" s="159"/>
+      <c r="H25" s="135"/>
+      <c r="I25" s="136"/>
+      <c r="J25" s="159"/>
+      <c r="K25" s="136"/>
+      <c r="L25" s="160"/>
+      <c r="M25" s="135"/>
+      <c r="N25" s="136"/>
+      <c r="O25" s="160"/>
+      <c r="P25" s="135"/>
+      <c r="Q25" s="136"/>
+      <c r="R25" s="161"/>
+      <c r="S25" s="161"/>
+      <c r="T25" s="162"/>
+      <c r="U25" s="163"/>
+      <c r="V25" s="163"/>
+      <c r="W25" s="163"/>
+      <c r="X25" s="163"/>
+      <c r="Y25" s="163"/>
+      <c r="Z25" s="163"/>
+    </row>
+    <row r="26" spans="1:26" ht="63.75" customHeight="1">
+      <c r="A26" s="157"/>
+      <c r="B26" s="136"/>
+      <c r="C26" s="158"/>
+      <c r="D26" s="136"/>
+      <c r="E26" s="158"/>
+      <c r="F26" s="136"/>
+      <c r="G26" s="159"/>
+      <c r="H26" s="135"/>
+      <c r="I26" s="136"/>
+      <c r="J26" s="159"/>
+      <c r="K26" s="136"/>
+      <c r="L26" s="160"/>
+      <c r="M26" s="135"/>
+      <c r="N26" s="136"/>
+      <c r="O26" s="160"/>
+      <c r="P26" s="135"/>
+      <c r="Q26" s="136"/>
+      <c r="R26" s="161"/>
+      <c r="S26" s="161"/>
+      <c r="T26" s="162"/>
+      <c r="U26" s="163"/>
+      <c r="V26" s="163"/>
+      <c r="W26" s="163"/>
+      <c r="X26" s="163"/>
+      <c r="Y26" s="163"/>
+      <c r="Z26" s="163"/>
+    </row>
+    <row r="27" spans="1:26" ht="63.75" customHeight="1">
+      <c r="A27" s="157"/>
+      <c r="B27" s="136"/>
+      <c r="C27" s="158"/>
+      <c r="D27" s="136"/>
+      <c r="E27" s="158"/>
+      <c r="F27" s="136"/>
+      <c r="G27" s="159"/>
+      <c r="H27" s="135"/>
+      <c r="I27" s="136"/>
+      <c r="J27" s="159"/>
+      <c r="K27" s="136"/>
+      <c r="L27" s="160"/>
+      <c r="M27" s="135"/>
+      <c r="N27" s="136"/>
+      <c r="O27" s="160"/>
+      <c r="P27" s="135"/>
+      <c r="Q27" s="136"/>
+      <c r="R27" s="161"/>
+      <c r="S27" s="161"/>
+      <c r="T27" s="162"/>
+      <c r="U27" s="163"/>
+      <c r="V27" s="163"/>
+      <c r="W27" s="163"/>
+      <c r="X27" s="163"/>
+      <c r="Y27" s="163"/>
+      <c r="Z27" s="163"/>
+    </row>
+    <row r="28" spans="1:26" ht="63.75" customHeight="1">
+      <c r="A28" s="157"/>
+      <c r="B28" s="136"/>
+      <c r="C28" s="158"/>
+      <c r="D28" s="136"/>
+      <c r="E28" s="158"/>
+      <c r="F28" s="136"/>
+      <c r="G28" s="159"/>
+      <c r="H28" s="135"/>
+      <c r="I28" s="136"/>
+      <c r="J28" s="159"/>
+      <c r="K28" s="136"/>
+      <c r="L28" s="160"/>
+      <c r="M28" s="135"/>
+      <c r="N28" s="136"/>
+      <c r="O28" s="160"/>
+      <c r="P28" s="135"/>
+      <c r="Q28" s="136"/>
+      <c r="R28" s="161"/>
+      <c r="S28" s="161"/>
+      <c r="T28" s="162"/>
+      <c r="U28" s="163"/>
+      <c r="V28" s="163"/>
+      <c r="W28" s="163"/>
+      <c r="X28" s="163"/>
+      <c r="Y28" s="163"/>
+      <c r="Z28" s="163"/>
+    </row>
+    <row r="29" spans="1:26" ht="63.75" customHeight="1">
+      <c r="A29" s="157"/>
+      <c r="B29" s="136"/>
+      <c r="C29" s="158"/>
+      <c r="D29" s="136"/>
+      <c r="E29" s="158"/>
+      <c r="F29" s="136"/>
+      <c r="G29" s="159"/>
+      <c r="H29" s="135"/>
+      <c r="I29" s="136"/>
+      <c r="J29" s="159"/>
+      <c r="K29" s="136"/>
+      <c r="L29" s="160"/>
+      <c r="M29" s="135"/>
+      <c r="N29" s="136"/>
+      <c r="O29" s="160"/>
+      <c r="P29" s="135"/>
+      <c r="Q29" s="136"/>
+      <c r="R29" s="161"/>
+      <c r="S29" s="161"/>
+      <c r="T29" s="162"/>
+      <c r="U29" s="163"/>
+      <c r="V29" s="163"/>
+      <c r="W29" s="163"/>
+      <c r="X29" s="163"/>
+      <c r="Y29" s="163"/>
+      <c r="Z29" s="163"/>
+    </row>
+    <row r="30" spans="1:26" ht="63.75" customHeight="1">
+      <c r="A30" s="157"/>
+      <c r="B30" s="136"/>
+      <c r="C30" s="158"/>
+      <c r="D30" s="136"/>
+      <c r="E30" s="158"/>
+      <c r="F30" s="136"/>
+      <c r="G30" s="159"/>
+      <c r="H30" s="135"/>
+      <c r="I30" s="136"/>
+      <c r="J30" s="159"/>
+      <c r="K30" s="136"/>
+      <c r="L30" s="160"/>
+      <c r="M30" s="135"/>
+      <c r="N30" s="136"/>
+      <c r="O30" s="160"/>
+      <c r="P30" s="135"/>
+      <c r="Q30" s="136"/>
+      <c r="R30" s="161"/>
+      <c r="S30" s="161"/>
+      <c r="T30" s="162"/>
+      <c r="U30" s="163"/>
+      <c r="V30" s="163"/>
+      <c r="W30" s="163"/>
+      <c r="X30" s="163"/>
+      <c r="Y30" s="163"/>
+      <c r="Z30" s="163"/>
+    </row>
+    <row r="31" spans="1:26" ht="63.75" customHeight="1" thickBot="1">
+      <c r="A31" s="164"/>
+      <c r="B31" s="165"/>
+      <c r="C31" s="166"/>
+      <c r="D31" s="165"/>
+      <c r="E31" s="166"/>
+      <c r="F31" s="165"/>
+      <c r="G31" s="167"/>
+      <c r="H31" s="168"/>
+      <c r="I31" s="165"/>
+      <c r="J31" s="167"/>
+      <c r="K31" s="165"/>
+      <c r="L31" s="169"/>
+      <c r="M31" s="168"/>
+      <c r="N31" s="165"/>
+      <c r="O31" s="169"/>
+      <c r="P31" s="168"/>
+      <c r="Q31" s="165"/>
+      <c r="R31" s="170"/>
+      <c r="S31" s="170"/>
+      <c r="T31" s="171"/>
+      <c r="U31" s="163"/>
+      <c r="V31" s="163"/>
+      <c r="W31" s="163"/>
+      <c r="X31" s="163"/>
+      <c r="Y31" s="163"/>
+      <c r="Z31" s="163"/>
+    </row>
+    <row r="32" spans="1:26" ht="12.75" customHeight="1">
+      <c r="D32" s="172"/>
+      <c r="E32" s="172"/>
+      <c r="F32" s="172"/>
+      <c r="G32" s="172"/>
+      <c r="H32" s="172"/>
+      <c r="I32" s="172"/>
+      <c r="J32" s="172"/>
+    </row>
+    <row r="33" spans="4:10" ht="12.75" customHeight="1">
+      <c r="D33" s="172"/>
+      <c r="E33" s="172"/>
+      <c r="F33" s="172"/>
+      <c r="G33" s="172"/>
+      <c r="H33" s="172"/>
+      <c r="I33" s="172"/>
+      <c r="J33" s="172"/>
+    </row>
+    <row r="34" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="35" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="36" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="37" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="38" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="39" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="40" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="41" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="42" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="43" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="44" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="45" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="46" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="47" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="48" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="49" ht="12.75" customHeight="1"/>
+    <row r="50" ht="12.75" customHeight="1"/>
+    <row r="51" ht="12.75" customHeight="1"/>
+    <row r="52" ht="12.75" customHeight="1"/>
+    <row r="53" ht="12.75" customHeight="1"/>
+    <row r="54" ht="12.75" customHeight="1"/>
+    <row r="55" ht="12.75" customHeight="1"/>
+    <row r="56" ht="12.75" customHeight="1"/>
+    <row r="57" ht="12.75" customHeight="1"/>
+    <row r="58" ht="12.75" customHeight="1"/>
+    <row r="59" ht="12.75" customHeight="1"/>
+    <row r="60" ht="12.75" customHeight="1"/>
+    <row r="61" ht="12.75" customHeight="1"/>
+    <row r="62" ht="12.75" customHeight="1"/>
+    <row r="63" ht="12.75" customHeight="1"/>
+    <row r="64" ht="12.75" customHeight="1"/>
+    <row r="65" ht="12.75" customHeight="1"/>
+    <row r="66" ht="12.75" customHeight="1"/>
+    <row r="67" ht="12.75" customHeight="1"/>
+    <row r="68" ht="12.75" customHeight="1"/>
+    <row r="69" ht="12.75" customHeight="1"/>
+    <row r="70" ht="12.75" customHeight="1"/>
+    <row r="71" ht="12.75" customHeight="1"/>
+    <row r="72" ht="12.75" customHeight="1"/>
+    <row r="73" ht="12.75" customHeight="1"/>
+    <row r="74" ht="12.75" customHeight="1"/>
+    <row r="75" ht="12.75" customHeight="1"/>
+    <row r="76" ht="12.75" customHeight="1"/>
+    <row r="77" ht="12.75" customHeight="1"/>
+    <row r="78" ht="12.75" customHeight="1"/>
+    <row r="79" ht="12.75" customHeight="1"/>
+    <row r="80" ht="12.75" customHeight="1"/>
+    <row r="81" ht="12.75" customHeight="1"/>
+    <row r="82" ht="12.75" customHeight="1"/>
+    <row r="83" ht="12.75" customHeight="1"/>
+    <row r="84" ht="12.75" customHeight="1"/>
+    <row r="85" ht="12.75" customHeight="1"/>
+    <row r="86" ht="12.75" customHeight="1"/>
+    <row r="87" ht="12.75" customHeight="1"/>
+    <row r="88" ht="12.75" customHeight="1"/>
+    <row r="89" ht="12.75" customHeight="1"/>
+    <row r="90" ht="12.75" customHeight="1"/>
+    <row r="91" ht="12.75" customHeight="1"/>
+    <row r="92" ht="12.75" customHeight="1"/>
+    <row r="93" ht="12.75" customHeight="1"/>
+    <row r="94" ht="12.75" customHeight="1"/>
+    <row r="95" ht="12.75" customHeight="1"/>
+    <row r="96" ht="12.75" customHeight="1"/>
+    <row r="97" ht="12.75" customHeight="1"/>
+    <row r="98" ht="12.75" customHeight="1"/>
+    <row r="99" ht="12.75" customHeight="1"/>
+    <row r="100" ht="12.75" customHeight="1"/>
+    <row r="101" ht="12.75" customHeight="1"/>
+    <row r="102" ht="12.75" customHeight="1"/>
+    <row r="103" ht="12.75" customHeight="1"/>
+    <row r="104" ht="12.75" customHeight="1"/>
+    <row r="105" ht="12.75" customHeight="1"/>
+    <row r="106" ht="12.75" customHeight="1"/>
+    <row r="107" ht="12.75" customHeight="1"/>
+    <row r="108" ht="12.75" customHeight="1"/>
+    <row r="109" ht="12.75" customHeight="1"/>
+    <row r="110" ht="12.75" customHeight="1"/>
+    <row r="111" ht="12.75" customHeight="1"/>
+    <row r="112" ht="12.75" customHeight="1"/>
+    <row r="113" ht="12.75" customHeight="1"/>
+    <row r="114" ht="12.75" customHeight="1"/>
+    <row r="115" ht="12.75" customHeight="1"/>
+    <row r="116" ht="12.75" customHeight="1"/>
+    <row r="117" ht="12.75" customHeight="1"/>
+    <row r="118" ht="12.75" customHeight="1"/>
+    <row r="119" ht="12.75" customHeight="1"/>
+    <row r="120" ht="12.75" customHeight="1"/>
+    <row r="121" ht="12.75" customHeight="1"/>
+    <row r="122" ht="12.75" customHeight="1"/>
+    <row r="123" ht="12.75" customHeight="1"/>
+    <row r="124" ht="12.75" customHeight="1"/>
+    <row r="125" ht="12.75" customHeight="1"/>
+    <row r="126" ht="12.75" customHeight="1"/>
+    <row r="127" ht="12.75" customHeight="1"/>
+    <row r="128" ht="12.75" customHeight="1"/>
+    <row r="129" ht="12.75" customHeight="1"/>
+    <row r="130" ht="12.75" customHeight="1"/>
+    <row r="131" ht="12.75" customHeight="1"/>
+    <row r="132" ht="12.75" customHeight="1"/>
+    <row r="133" ht="12.75" customHeight="1"/>
+    <row r="134" ht="12.75" customHeight="1"/>
+    <row r="135" ht="12.75" customHeight="1"/>
+    <row r="136" ht="12.75" customHeight="1"/>
+    <row r="137" ht="12.75" customHeight="1"/>
+    <row r="138" ht="12.75" customHeight="1"/>
+    <row r="139" ht="12.75" customHeight="1"/>
+    <row r="140" ht="12.75" customHeight="1"/>
+    <row r="141" ht="12.75" customHeight="1"/>
+    <row r="142" ht="12.75" customHeight="1"/>
+    <row r="143" ht="12.75" customHeight="1"/>
+    <row r="144" ht="12.75" customHeight="1"/>
+    <row r="145" ht="12.75" customHeight="1"/>
+    <row r="146" ht="12.75" customHeight="1"/>
+    <row r="147" ht="12.75" customHeight="1"/>
+    <row r="148" ht="12.75" customHeight="1"/>
+    <row r="149" ht="12.75" customHeight="1"/>
+    <row r="150" ht="12.75" customHeight="1"/>
+    <row r="151" ht="12.75" customHeight="1"/>
+    <row r="152" ht="12.75" customHeight="1"/>
+    <row r="153" ht="12.75" customHeight="1"/>
+    <row r="154" ht="12.75" customHeight="1"/>
+    <row r="155" ht="12.75" customHeight="1"/>
+    <row r="156" ht="12.75" customHeight="1"/>
+    <row r="157" ht="12.75" customHeight="1"/>
+    <row r="158" ht="12.75" customHeight="1"/>
+    <row r="159" ht="12.75" customHeight="1"/>
+    <row r="160" ht="12.75" customHeight="1"/>
+    <row r="161" ht="12.75" customHeight="1"/>
+    <row r="162" ht="12.75" customHeight="1"/>
+    <row r="163" ht="12.75" customHeight="1"/>
+    <row r="164" ht="12.75" customHeight="1"/>
+    <row r="165" ht="12.75" customHeight="1"/>
+    <row r="166" ht="12.75" customHeight="1"/>
+    <row r="167" ht="12.75" customHeight="1"/>
+    <row r="168" ht="12.75" customHeight="1"/>
+    <row r="169" ht="12.75" customHeight="1"/>
+    <row r="170" ht="12.75" customHeight="1"/>
+    <row r="171" ht="12.75" customHeight="1"/>
+    <row r="172" ht="12.75" customHeight="1"/>
+    <row r="173" ht="12.75" customHeight="1"/>
+    <row r="174" ht="12.75" customHeight="1"/>
+    <row r="175" ht="12.75" customHeight="1"/>
+    <row r="176" ht="12.75" customHeight="1"/>
+    <row r="177" ht="12.75" customHeight="1"/>
+    <row r="178" ht="12.75" customHeight="1"/>
+    <row r="179" ht="12.75" customHeight="1"/>
+    <row r="180" ht="12.75" customHeight="1"/>
+    <row r="181" ht="12.75" customHeight="1"/>
+    <row r="182" ht="12.75" customHeight="1"/>
+    <row r="183" ht="12.75" customHeight="1"/>
+    <row r="184" ht="12.75" customHeight="1"/>
+    <row r="185" ht="12.75" customHeight="1"/>
+    <row r="186" ht="12.75" customHeight="1"/>
+    <row r="187" ht="12.75" customHeight="1"/>
+    <row r="188" ht="12.75" customHeight="1"/>
+    <row r="189" ht="12.75" customHeight="1"/>
+    <row r="190" ht="12.75" customHeight="1"/>
+    <row r="191" ht="12.75" customHeight="1"/>
+    <row r="192" ht="12.75" customHeight="1"/>
+    <row r="193" ht="12.75" customHeight="1"/>
+    <row r="194" ht="12.75" customHeight="1"/>
+    <row r="195" ht="12.75" customHeight="1"/>
+    <row r="196" ht="12.75" customHeight="1"/>
+    <row r="197" ht="12.75" customHeight="1"/>
+    <row r="198" ht="12.75" customHeight="1"/>
+    <row r="199" ht="12.75" customHeight="1"/>
+    <row r="200" ht="12.75" customHeight="1"/>
+    <row r="201" ht="12.75" customHeight="1"/>
+    <row r="202" ht="12.75" customHeight="1"/>
+    <row r="203" ht="12.75" customHeight="1"/>
+    <row r="204" ht="12.75" customHeight="1"/>
+    <row r="205" ht="12.75" customHeight="1"/>
+    <row r="206" ht="12.75" customHeight="1"/>
+    <row r="207" ht="12.75" customHeight="1"/>
+    <row r="208" ht="12.75" customHeight="1"/>
+    <row r="209" ht="12.75" customHeight="1"/>
+    <row r="210" ht="12.75" customHeight="1"/>
+    <row r="211" ht="12.75" customHeight="1"/>
+    <row r="212" ht="12.75" customHeight="1"/>
+    <row r="213" ht="12.75" customHeight="1"/>
+    <row r="214" ht="12.75" customHeight="1"/>
+    <row r="215" ht="12.75" customHeight="1"/>
+    <row r="216" ht="12.75" customHeight="1"/>
+    <row r="217" ht="12.75" customHeight="1"/>
+    <row r="218" ht="12.75" customHeight="1"/>
+    <row r="219" ht="12.75" customHeight="1"/>
+    <row r="220" ht="12.75" customHeight="1"/>
+    <row r="221" ht="12.75" customHeight="1"/>
+    <row r="222" ht="12.75" customHeight="1"/>
+    <row r="223" ht="12.75" customHeight="1"/>
+    <row r="224" ht="12.75" customHeight="1"/>
+    <row r="225" ht="12.75" customHeight="1"/>
+    <row r="226" ht="12.75" customHeight="1"/>
+    <row r="227" ht="12.75" customHeight="1"/>
+    <row r="228" ht="12.75" customHeight="1"/>
+    <row r="229" ht="12.75" customHeight="1"/>
+    <row r="230" ht="12.75" customHeight="1"/>
+    <row r="231" ht="12.75" customHeight="1"/>
+    <row r="232" ht="12.75" customHeight="1"/>
+    <row r="233" ht="12.75" customHeight="1"/>
+    <row r="234" ht="12.75" customHeight="1"/>
+    <row r="235" ht="12.75" customHeight="1"/>
+    <row r="236" ht="12.75" customHeight="1"/>
+    <row r="237" ht="12.75" customHeight="1"/>
+    <row r="238" ht="12.75" customHeight="1"/>
+    <row r="239" ht="12.75" customHeight="1"/>
+    <row r="240" ht="12.75" customHeight="1"/>
+    <row r="241" ht="12.75" customHeight="1"/>
+    <row r="242" ht="12.75" customHeight="1"/>
+    <row r="243" ht="12.75" customHeight="1"/>
+    <row r="244" ht="12.75" customHeight="1"/>
+    <row r="245" ht="12.75" customHeight="1"/>
+    <row r="246" ht="12.75" customHeight="1"/>
+    <row r="247" ht="12.75" customHeight="1"/>
+    <row r="248" ht="12.75" customHeight="1"/>
+    <row r="249" ht="12.75" customHeight="1"/>
+    <row r="250" ht="12.75" customHeight="1"/>
+    <row r="251" ht="12.75" customHeight="1"/>
+    <row r="252" ht="12.75" customHeight="1"/>
+    <row r="253" ht="12.75" customHeight="1"/>
+    <row r="254" ht="12.75" customHeight="1"/>
+    <row r="255" ht="12.75" customHeight="1"/>
+    <row r="256" ht="12.75" customHeight="1"/>
+    <row r="257" ht="12.75" customHeight="1"/>
+    <row r="258" ht="12.75" customHeight="1"/>
+    <row r="259" ht="12.75" customHeight="1"/>
+    <row r="260" ht="12.75" customHeight="1"/>
+    <row r="261" ht="12.75" customHeight="1"/>
+    <row r="262" ht="12.75" customHeight="1"/>
+    <row r="263" ht="12.75" customHeight="1"/>
+    <row r="264" ht="12.75" customHeight="1"/>
+    <row r="265" ht="12.75" customHeight="1"/>
+    <row r="266" ht="12.75" customHeight="1"/>
+    <row r="267" ht="12.75" customHeight="1"/>
+    <row r="268" ht="12.75" customHeight="1"/>
+    <row r="269" ht="12.75" customHeight="1"/>
+    <row r="270" ht="12.75" customHeight="1"/>
+    <row r="271" ht="12.75" customHeight="1"/>
+    <row r="272" ht="12.75" customHeight="1"/>
+    <row r="273" ht="12.75" customHeight="1"/>
+    <row r="274" ht="12.75" customHeight="1"/>
+    <row r="275" ht="12.75" customHeight="1"/>
+    <row r="276" ht="12.75" customHeight="1"/>
+    <row r="277" ht="12.75" customHeight="1"/>
+    <row r="278" ht="12.75" customHeight="1"/>
+    <row r="279" ht="12.75" customHeight="1"/>
+    <row r="280" ht="12.75" customHeight="1"/>
+    <row r="281" ht="12.75" customHeight="1"/>
+    <row r="282" ht="12.75" customHeight="1"/>
+    <row r="283" ht="12.75" customHeight="1"/>
+    <row r="284" ht="12.75" customHeight="1"/>
+    <row r="285" ht="12.75" customHeight="1"/>
+    <row r="286" ht="12.75" customHeight="1"/>
+    <row r="287" ht="12.75" customHeight="1"/>
+    <row r="288" ht="12.75" customHeight="1"/>
+    <row r="289" ht="12.75" customHeight="1"/>
+    <row r="290" ht="12.75" customHeight="1"/>
+    <row r="291" ht="12.75" customHeight="1"/>
+    <row r="292" ht="12.75" customHeight="1"/>
+    <row r="293" ht="12.75" customHeight="1"/>
+    <row r="294" ht="12.75" customHeight="1"/>
+    <row r="295" ht="12.75" customHeight="1"/>
+    <row r="296" ht="12.75" customHeight="1"/>
+    <row r="297" ht="12.75" customHeight="1"/>
+    <row r="298" ht="12.75" customHeight="1"/>
+    <row r="299" ht="12.75" customHeight="1"/>
+    <row r="300" ht="12.75" customHeight="1"/>
+    <row r="301" ht="12.75" customHeight="1"/>
+    <row r="302" ht="12.75" customHeight="1"/>
+    <row r="303" ht="12.75" customHeight="1"/>
+    <row r="304" ht="12.75" customHeight="1"/>
+    <row r="305" ht="12.75" customHeight="1"/>
+    <row r="306" ht="12.75" customHeight="1"/>
+    <row r="307" ht="12.75" customHeight="1"/>
+    <row r="308" ht="12.75" customHeight="1"/>
+    <row r="309" ht="12.75" customHeight="1"/>
+    <row r="310" ht="12.75" customHeight="1"/>
+    <row r="311" ht="12.75" customHeight="1"/>
+    <row r="312" ht="12.75" customHeight="1"/>
+    <row r="313" ht="12.75" customHeight="1"/>
+    <row r="314" ht="12.75" customHeight="1"/>
+    <row r="315" ht="12.75" customHeight="1"/>
+    <row r="316" ht="12.75" customHeight="1"/>
+    <row r="317" ht="12.75" customHeight="1"/>
+    <row r="318" ht="12.75" customHeight="1"/>
+    <row r="319" ht="12.75" customHeight="1"/>
+    <row r="320" ht="12.75" customHeight="1"/>
+    <row r="321" ht="12.75" customHeight="1"/>
+    <row r="322" ht="12.75" customHeight="1"/>
+    <row r="323" ht="12.75" customHeight="1"/>
+    <row r="324" ht="12.75" customHeight="1"/>
+    <row r="325" ht="12.75" customHeight="1"/>
+    <row r="326" ht="12.75" customHeight="1"/>
+    <row r="327" ht="12.75" customHeight="1"/>
+    <row r="328" ht="12.75" customHeight="1"/>
+    <row r="329" ht="12.75" customHeight="1"/>
+    <row r="330" ht="12.75" customHeight="1"/>
+    <row r="331" ht="12.75" customHeight="1"/>
+    <row r="332" ht="12.75" customHeight="1"/>
+    <row r="333" ht="12.75" customHeight="1"/>
+    <row r="334" ht="12.75" customHeight="1"/>
+    <row r="335" ht="12.75" customHeight="1"/>
+    <row r="336" ht="12.75" customHeight="1"/>
+    <row r="337" ht="12.75" customHeight="1"/>
+    <row r="338" ht="12.75" customHeight="1"/>
+    <row r="339" ht="12.75" customHeight="1"/>
+    <row r="340" ht="12.75" customHeight="1"/>
+    <row r="341" ht="12.75" customHeight="1"/>
+    <row r="342" ht="12.75" customHeight="1"/>
+    <row r="343" ht="12.75" customHeight="1"/>
+    <row r="344" ht="12.75" customHeight="1"/>
+    <row r="345" ht="12.75" customHeight="1"/>
+    <row r="346" ht="12.75" customHeight="1"/>
+    <row r="347" ht="12.75" customHeight="1"/>
+    <row r="348" ht="12.75" customHeight="1"/>
+    <row r="349" ht="12.75" customHeight="1"/>
+    <row r="350" ht="12.75" customHeight="1"/>
+    <row r="351" ht="12.75" customHeight="1"/>
+    <row r="352" ht="12.75" customHeight="1"/>
+    <row r="353" ht="12.75" customHeight="1"/>
+    <row r="354" ht="12.75" customHeight="1"/>
+    <row r="355" ht="12.75" customHeight="1"/>
+    <row r="356" ht="12.75" customHeight="1"/>
+    <row r="357" ht="12.75" customHeight="1"/>
+    <row r="358" ht="12.75" customHeight="1"/>
+    <row r="359" ht="12.75" customHeight="1"/>
+    <row r="360" ht="12.75" customHeight="1"/>
+    <row r="361" ht="12.75" customHeight="1"/>
+    <row r="362" ht="12.75" customHeight="1"/>
+    <row r="363" ht="12.75" customHeight="1"/>
+    <row r="364" ht="12.75" customHeight="1"/>
+    <row r="365" ht="12.75" customHeight="1"/>
+    <row r="366" ht="12.75" customHeight="1"/>
+    <row r="367" ht="12.75" customHeight="1"/>
+    <row r="368" ht="12.75" customHeight="1"/>
+    <row r="369" ht="12.75" customHeight="1"/>
+    <row r="370" ht="12.75" customHeight="1"/>
+    <row r="371" ht="12.75" customHeight="1"/>
+    <row r="372" ht="12.75" customHeight="1"/>
+    <row r="373" ht="12.75" customHeight="1"/>
+    <row r="374" ht="12.75" customHeight="1"/>
+    <row r="375" ht="12.75" customHeight="1"/>
+    <row r="376" ht="12.75" customHeight="1"/>
+    <row r="377" ht="12.75" customHeight="1"/>
+    <row r="378" ht="12.75" customHeight="1"/>
+    <row r="379" ht="12.75" customHeight="1"/>
+    <row r="380" ht="12.75" customHeight="1"/>
+    <row r="381" ht="12.75" customHeight="1"/>
+    <row r="382" ht="12.75" customHeight="1"/>
+    <row r="383" ht="12.75" customHeight="1"/>
+    <row r="384" ht="12.75" customHeight="1"/>
+    <row r="385" ht="12.75" customHeight="1"/>
+    <row r="386" ht="12.75" customHeight="1"/>
+    <row r="387" ht="12.75" customHeight="1"/>
+    <row r="388" ht="12.75" customHeight="1"/>
+    <row r="389" ht="12.75" customHeight="1"/>
+    <row r="390" ht="12.75" customHeight="1"/>
+    <row r="391" ht="12.75" customHeight="1"/>
+    <row r="392" ht="12.75" customHeight="1"/>
+    <row r="393" ht="12.75" customHeight="1"/>
+    <row r="394" ht="12.75" customHeight="1"/>
+    <row r="395" ht="12.75" customHeight="1"/>
+    <row r="396" ht="12.75" customHeight="1"/>
+    <row r="397" ht="12.75" customHeight="1"/>
+    <row r="398" ht="12.75" customHeight="1"/>
+    <row r="399" ht="12.75" customHeight="1"/>
+    <row r="400" ht="12.75" customHeight="1"/>
+    <row r="401" ht="12.75" customHeight="1"/>
+    <row r="402" ht="12.75" customHeight="1"/>
+    <row r="403" ht="12.75" customHeight="1"/>
+    <row r="404" ht="12.75" customHeight="1"/>
+    <row r="405" ht="12.75" customHeight="1"/>
+    <row r="406" ht="12.75" customHeight="1"/>
+    <row r="407" ht="12.75" customHeight="1"/>
+    <row r="408" ht="12.75" customHeight="1"/>
+    <row r="409" ht="12.75" customHeight="1"/>
+    <row r="410" ht="12.75" customHeight="1"/>
+    <row r="411" ht="12.75" customHeight="1"/>
+    <row r="412" ht="12.75" customHeight="1"/>
+    <row r="413" ht="12.75" customHeight="1"/>
+    <row r="414" ht="12.75" customHeight="1"/>
+    <row r="415" ht="12.75" customHeight="1"/>
+    <row r="416" ht="12.75" customHeight="1"/>
+    <row r="417" ht="12.75" customHeight="1"/>
+    <row r="418" ht="12.75" customHeight="1"/>
+    <row r="419" ht="12.75" customHeight="1"/>
+    <row r="420" ht="12.75" customHeight="1"/>
+    <row r="421" ht="12.75" customHeight="1"/>
+    <row r="422" ht="12.75" customHeight="1"/>
+    <row r="423" ht="12.75" customHeight="1"/>
+    <row r="424" ht="12.75" customHeight="1"/>
+    <row r="425" ht="12.75" customHeight="1"/>
+    <row r="426" ht="12.75" customHeight="1"/>
+    <row r="427" ht="12.75" customHeight="1"/>
+    <row r="428" ht="12.75" customHeight="1"/>
+    <row r="429" ht="12.75" customHeight="1"/>
+    <row r="430" ht="12.75" customHeight="1"/>
+    <row r="431" ht="12.75" customHeight="1"/>
+    <row r="432" ht="12.75" customHeight="1"/>
+    <row r="433" ht="12.75" customHeight="1"/>
+    <row r="434" ht="12.75" customHeight="1"/>
+    <row r="435" ht="12.75" customHeight="1"/>
+    <row r="436" ht="12.75" customHeight="1"/>
+    <row r="437" ht="12.75" customHeight="1"/>
+    <row r="438" ht="12.75" customHeight="1"/>
+    <row r="439" ht="12.75" customHeight="1"/>
+    <row r="440" ht="12.75" customHeight="1"/>
+    <row r="441" ht="12.75" customHeight="1"/>
+    <row r="442" ht="12.75" customHeight="1"/>
+    <row r="443" ht="12.75" customHeight="1"/>
+    <row r="444" ht="12.75" customHeight="1"/>
+    <row r="445" ht="12.75" customHeight="1"/>
+    <row r="446" ht="12.75" customHeight="1"/>
+    <row r="447" ht="12.75" customHeight="1"/>
+    <row r="448" ht="12.75" customHeight="1"/>
+    <row r="449" ht="12.75" customHeight="1"/>
+    <row r="450" ht="12.75" customHeight="1"/>
+    <row r="451" ht="12.75" customHeight="1"/>
+    <row r="452" ht="12.75" customHeight="1"/>
+    <row r="453" ht="12.75" customHeight="1"/>
+    <row r="454" ht="12.75" customHeight="1"/>
+    <row r="455" ht="12.75" customHeight="1"/>
+    <row r="456" ht="12.75" customHeight="1"/>
+    <row r="457" ht="12.75" customHeight="1"/>
+    <row r="458" ht="12.75" customHeight="1"/>
+    <row r="459" ht="12.75" customHeight="1"/>
+    <row r="460" ht="12.75" customHeight="1"/>
+    <row r="461" ht="12.75" customHeight="1"/>
+    <row r="462" ht="12.75" customHeight="1"/>
+    <row r="463" ht="12.75" customHeight="1"/>
+    <row r="464" ht="12.75" customHeight="1"/>
+    <row r="465" ht="12.75" customHeight="1"/>
+    <row r="466" ht="12.75" customHeight="1"/>
+    <row r="467" ht="12.75" customHeight="1"/>
+    <row r="468" ht="12.75" customHeight="1"/>
+    <row r="469" ht="12.75" customHeight="1"/>
+    <row r="470" ht="12.75" customHeight="1"/>
+    <row r="471" ht="12.75" customHeight="1"/>
+    <row r="472" ht="12.75" customHeight="1"/>
+    <row r="473" ht="12.75" customHeight="1"/>
+    <row r="474" ht="12.75" customHeight="1"/>
+    <row r="475" ht="12.75" customHeight="1"/>
+    <row r="476" ht="12.75" customHeight="1"/>
+    <row r="477" ht="12.75" customHeight="1"/>
+    <row r="478" ht="12.75" customHeight="1"/>
+    <row r="479" ht="12.75" customHeight="1"/>
+    <row r="480" ht="12.75" customHeight="1"/>
+    <row r="481" ht="12.75" customHeight="1"/>
+    <row r="482" ht="12.75" customHeight="1"/>
+    <row r="483" ht="12.75" customHeight="1"/>
+    <row r="484" ht="12.75" customHeight="1"/>
+    <row r="485" ht="12.75" customHeight="1"/>
+    <row r="486" ht="12.75" customHeight="1"/>
+    <row r="487" ht="12.75" customHeight="1"/>
+    <row r="488" ht="12.75" customHeight="1"/>
+    <row r="489" ht="12.75" customHeight="1"/>
+    <row r="490" ht="12.75" customHeight="1"/>
+    <row r="491" ht="12.75" customHeight="1"/>
+    <row r="492" ht="12.75" customHeight="1"/>
+    <row r="493" ht="12.75" customHeight="1"/>
+    <row r="494" ht="12.75" customHeight="1"/>
+    <row r="495" ht="12.75" customHeight="1"/>
+    <row r="496" ht="12.75" customHeight="1"/>
+    <row r="497" ht="12.75" customHeight="1"/>
+    <row r="498" ht="12.75" customHeight="1"/>
+    <row r="499" ht="12.75" customHeight="1"/>
+    <row r="500" ht="12.75" customHeight="1"/>
+    <row r="501" ht="12.75" customHeight="1"/>
+    <row r="502" ht="12.75" customHeight="1"/>
+    <row r="503" ht="12.75" customHeight="1"/>
+    <row r="504" ht="12.75" customHeight="1"/>
+    <row r="505" ht="12.75" customHeight="1"/>
+    <row r="506" ht="12.75" customHeight="1"/>
+    <row r="507" ht="12.75" customHeight="1"/>
+    <row r="508" ht="12.75" customHeight="1"/>
+    <row r="509" ht="12.75" customHeight="1"/>
+    <row r="510" ht="12.75" customHeight="1"/>
+    <row r="511" ht="12.75" customHeight="1"/>
+    <row r="512" ht="12.75" customHeight="1"/>
+    <row r="513" ht="12.75" customHeight="1"/>
+    <row r="514" ht="12.75" customHeight="1"/>
+    <row r="515" ht="12.75" customHeight="1"/>
+    <row r="516" ht="12.75" customHeight="1"/>
+    <row r="517" ht="12.75" customHeight="1"/>
+    <row r="518" ht="12.75" customHeight="1"/>
+    <row r="519" ht="12.75" customHeight="1"/>
+    <row r="520" ht="12.75" customHeight="1"/>
+    <row r="521" ht="12.75" customHeight="1"/>
+    <row r="522" ht="12.75" customHeight="1"/>
+    <row r="523" ht="12.75" customHeight="1"/>
+    <row r="524" ht="12.75" customHeight="1"/>
+    <row r="525" ht="12.75" customHeight="1"/>
+    <row r="526" ht="12.75" customHeight="1"/>
+    <row r="527" ht="12.75" customHeight="1"/>
+    <row r="528" ht="12.75" customHeight="1"/>
+    <row r="529" ht="12.75" customHeight="1"/>
+    <row r="530" ht="12.75" customHeight="1"/>
+    <row r="531" ht="12.75" customHeight="1"/>
+    <row r="532" ht="12.75" customHeight="1"/>
+    <row r="533" ht="12.75" customHeight="1"/>
+    <row r="534" ht="12.75" customHeight="1"/>
+    <row r="535" ht="12.75" customHeight="1"/>
+    <row r="536" ht="12.75" customHeight="1"/>
+    <row r="537" ht="12.75" customHeight="1"/>
+    <row r="538" ht="12.75" customHeight="1"/>
+    <row r="539" ht="12.75" customHeight="1"/>
+    <row r="540" ht="12.75" customHeight="1"/>
+    <row r="541" ht="12.75" customHeight="1"/>
+    <row r="542" ht="12.75" customHeight="1"/>
+    <row r="543" ht="12.75" customHeight="1"/>
+    <row r="544" ht="12.75" customHeight="1"/>
+    <row r="545" ht="12.75" customHeight="1"/>
+    <row r="546" ht="12.75" customHeight="1"/>
+    <row r="547" ht="12.75" customHeight="1"/>
+    <row r="548" ht="12.75" customHeight="1"/>
+    <row r="549" ht="12.75" customHeight="1"/>
+    <row r="550" ht="12.75" customHeight="1"/>
+    <row r="551" ht="12.75" customHeight="1"/>
+    <row r="552" ht="12.75" customHeight="1"/>
+    <row r="553" ht="12.75" customHeight="1"/>
+    <row r="554" ht="12.75" customHeight="1"/>
+    <row r="555" ht="12.75" customHeight="1"/>
+    <row r="556" ht="12.75" customHeight="1"/>
+    <row r="557" ht="12.75" customHeight="1"/>
+    <row r="558" ht="12.75" customHeight="1"/>
+    <row r="559" ht="12.75" customHeight="1"/>
+    <row r="560" ht="12.75" customHeight="1"/>
+    <row r="561" ht="12.75" customHeight="1"/>
+    <row r="562" ht="12.75" customHeight="1"/>
+    <row r="563" ht="12.75" customHeight="1"/>
+    <row r="564" ht="12.75" customHeight="1"/>
+    <row r="565" ht="12.75" customHeight="1"/>
+    <row r="566" ht="12.75" customHeight="1"/>
+    <row r="567" ht="12.75" customHeight="1"/>
+    <row r="568" ht="12.75" customHeight="1"/>
+    <row r="569" ht="12.75" customHeight="1"/>
+    <row r="570" ht="12.75" customHeight="1"/>
+    <row r="571" ht="12.75" customHeight="1"/>
+    <row r="572" ht="12.75" customHeight="1"/>
+    <row r="573" ht="12.75" customHeight="1"/>
+    <row r="574" ht="12.75" customHeight="1"/>
+    <row r="575" ht="12.75" customHeight="1"/>
+    <row r="576" ht="12.75" customHeight="1"/>
+    <row r="577" ht="12.75" customHeight="1"/>
+    <row r="578" ht="12.75" customHeight="1"/>
+    <row r="579" ht="12.75" customHeight="1"/>
+    <row r="580" ht="12.75" customHeight="1"/>
+    <row r="581" ht="12.75" customHeight="1"/>
+    <row r="582" ht="12.75" customHeight="1"/>
+    <row r="583" ht="12.75" customHeight="1"/>
+    <row r="584" ht="12.75" customHeight="1"/>
+    <row r="585" ht="12.75" customHeight="1"/>
+    <row r="586" ht="12.75" customHeight="1"/>
+    <row r="587" ht="12.75" customHeight="1"/>
+    <row r="588" ht="12.75" customHeight="1"/>
+    <row r="589" ht="12.75" customHeight="1"/>
+    <row r="590" ht="12.75" customHeight="1"/>
+    <row r="591" ht="12.75" customHeight="1"/>
+    <row r="592" ht="12.75" customHeight="1"/>
+    <row r="593" ht="12.75" customHeight="1"/>
+    <row r="594" ht="12.75" customHeight="1"/>
+    <row r="595" ht="12.75" customHeight="1"/>
+    <row r="596" ht="12.75" customHeight="1"/>
+    <row r="597" ht="12.75" customHeight="1"/>
+    <row r="598" ht="12.75" customHeight="1"/>
+    <row r="599" ht="12.75" customHeight="1"/>
+    <row r="600" ht="12.75" customHeight="1"/>
+    <row r="601" ht="12.75" customHeight="1"/>
+    <row r="602" ht="12.75" customHeight="1"/>
+    <row r="603" ht="12.75" customHeight="1"/>
+    <row r="604" ht="12.75" customHeight="1"/>
+    <row r="605" ht="12.75" customHeight="1"/>
+    <row r="606" ht="12.75" customHeight="1"/>
+    <row r="607" ht="12.75" customHeight="1"/>
+    <row r="608" ht="12.75" customHeight="1"/>
+    <row r="609" ht="12.75" customHeight="1"/>
+    <row r="610" ht="12.75" customHeight="1"/>
+    <row r="611" ht="12.75" customHeight="1"/>
+    <row r="612" ht="12.75" customHeight="1"/>
+    <row r="613" ht="12.75" customHeight="1"/>
+    <row r="614" ht="12.75" customHeight="1"/>
+    <row r="615" ht="12.75" customHeight="1"/>
+    <row r="616" ht="12.75" customHeight="1"/>
+    <row r="617" ht="12.75" customHeight="1"/>
+    <row r="618" ht="12.75" customHeight="1"/>
+    <row r="619" ht="12.75" customHeight="1"/>
+    <row r="620" ht="12.75" customHeight="1"/>
+    <row r="621" ht="12.75" customHeight="1"/>
+    <row r="622" ht="12.75" customHeight="1"/>
+    <row r="623" ht="12.75" customHeight="1"/>
+    <row r="624" ht="12.75" customHeight="1"/>
+    <row r="625" ht="12.75" customHeight="1"/>
+    <row r="626" ht="12.75" customHeight="1"/>
+    <row r="627" ht="12.75" customHeight="1"/>
+    <row r="628" ht="12.75" customHeight="1"/>
+    <row r="629" ht="12.75" customHeight="1"/>
+    <row r="630" ht="12.75" customHeight="1"/>
+    <row r="631" ht="12.75" customHeight="1"/>
+    <row r="632" ht="12.75" customHeight="1"/>
+    <row r="633" ht="12.75" customHeight="1"/>
+    <row r="634" ht="12.75" customHeight="1"/>
+    <row r="635" ht="12.75" customHeight="1"/>
+    <row r="636" ht="12.75" customHeight="1"/>
+    <row r="637" ht="12.75" customHeight="1"/>
+    <row r="638" ht="12.75" customHeight="1"/>
+    <row r="639" ht="12.75" customHeight="1"/>
+    <row r="640" ht="12.75" customHeight="1"/>
+    <row r="641" ht="12.75" customHeight="1"/>
+    <row r="642" ht="12.75" customHeight="1"/>
+    <row r="643" ht="12.75" customHeight="1"/>
+    <row r="644" ht="12.75" customHeight="1"/>
+    <row r="645" ht="12.75" customHeight="1"/>
+    <row r="646" ht="12.75" customHeight="1"/>
+    <row r="647" ht="12.75" customHeight="1"/>
+    <row r="648" ht="12.75" customHeight="1"/>
+    <row r="649" ht="12.75" customHeight="1"/>
+    <row r="650" ht="12.75" customHeight="1"/>
+    <row r="651" ht="12.75" customHeight="1"/>
+    <row r="652" ht="12.75" customHeight="1"/>
+    <row r="653" ht="12.75" customHeight="1"/>
+    <row r="654" ht="12.75" customHeight="1"/>
+    <row r="655" ht="12.75" customHeight="1"/>
+    <row r="656" ht="12.75" customHeight="1"/>
+    <row r="657" ht="12.75" customHeight="1"/>
+    <row r="658" ht="12.75" customHeight="1"/>
+    <row r="659" ht="12.75" customHeight="1"/>
+    <row r="660" ht="12.75" customHeight="1"/>
+    <row r="661" ht="12.75" customHeight="1"/>
+    <row r="662" ht="12.75" customHeight="1"/>
+    <row r="663" ht="12.75" customHeight="1"/>
+    <row r="664" ht="12.75" customHeight="1"/>
+    <row r="665" ht="12.75" customHeight="1"/>
+    <row r="666" ht="12.75" customHeight="1"/>
+    <row r="667" ht="12.75" customHeight="1"/>
+    <row r="668" ht="12.75" customHeight="1"/>
+    <row r="669" ht="12.75" customHeight="1"/>
+    <row r="670" ht="12.75" customHeight="1"/>
+    <row r="671" ht="12.75" customHeight="1"/>
+    <row r="672" ht="12.75" customHeight="1"/>
+    <row r="673" ht="12.75" customHeight="1"/>
+    <row r="674" ht="12.75" customHeight="1"/>
+    <row r="675" ht="12.75" customHeight="1"/>
+    <row r="676" ht="12.75" customHeight="1"/>
+    <row r="677" ht="12.75" customHeight="1"/>
+    <row r="678" ht="12.75" customHeight="1"/>
+    <row r="679" ht="12.75" customHeight="1"/>
+    <row r="680" ht="12.75" customHeight="1"/>
+    <row r="681" ht="12.75" customHeight="1"/>
+    <row r="682" ht="12.75" customHeight="1"/>
+    <row r="683" ht="12.75" customHeight="1"/>
+    <row r="684" ht="12.75" customHeight="1"/>
+    <row r="685" ht="12.75" customHeight="1"/>
+    <row r="686" ht="12.75" customHeight="1"/>
+    <row r="687" ht="12.75" customHeight="1"/>
+    <row r="688" ht="12.75" customHeight="1"/>
+    <row r="689" ht="12.75" customHeight="1"/>
+    <row r="690" ht="12.75" customHeight="1"/>
+    <row r="691" ht="12.75" customHeight="1"/>
+    <row r="692" ht="12.75" customHeight="1"/>
+    <row r="693" ht="12.75" customHeight="1"/>
+    <row r="694" ht="12.75" customHeight="1"/>
+    <row r="695" ht="12.75" customHeight="1"/>
+    <row r="696" ht="12.75" customHeight="1"/>
+    <row r="697" ht="12.75" customHeight="1"/>
+    <row r="698" ht="12.75" customHeight="1"/>
+    <row r="699" ht="12.75" customHeight="1"/>
+    <row r="700" ht="12.75" customHeight="1"/>
+    <row r="701" ht="12.75" customHeight="1"/>
+    <row r="702" ht="12.75" customHeight="1"/>
+    <row r="703" ht="12.75" customHeight="1"/>
+    <row r="704" ht="12.75" customHeight="1"/>
+    <row r="705" ht="12.75" customHeight="1"/>
+    <row r="706" ht="12.75" customHeight="1"/>
+    <row r="707" ht="12.75" customHeight="1"/>
+    <row r="708" ht="12.75" customHeight="1"/>
+    <row r="709" ht="12.75" customHeight="1"/>
+    <row r="710" ht="12.75" customHeight="1"/>
+    <row r="711" ht="12.75" customHeight="1"/>
+    <row r="712" ht="12.75" customHeight="1"/>
+    <row r="713" ht="12.75" customHeight="1"/>
+    <row r="714" ht="12.75" customHeight="1"/>
+    <row r="715" ht="12.75" customHeight="1"/>
+    <row r="716" ht="12.75" customHeight="1"/>
+    <row r="717" ht="12.75" customHeight="1"/>
+    <row r="718" ht="12.75" customHeight="1"/>
+    <row r="719" ht="12.75" customHeight="1"/>
+    <row r="720" ht="12.75" customHeight="1"/>
+    <row r="721" ht="12.75" customHeight="1"/>
+    <row r="722" ht="12.75" customHeight="1"/>
+    <row r="723" ht="12.75" customHeight="1"/>
+    <row r="724" ht="12.75" customHeight="1"/>
+    <row r="725" ht="12.75" customHeight="1"/>
+    <row r="726" ht="12.75" customHeight="1"/>
+    <row r="727" ht="12.75" customHeight="1"/>
+    <row r="728" ht="12.75" customHeight="1"/>
+    <row r="729" ht="12.75" customHeight="1"/>
+    <row r="730" ht="12.75" customHeight="1"/>
+    <row r="731" ht="12.75" customHeight="1"/>
+    <row r="732" ht="12.75" customHeight="1"/>
+    <row r="733" ht="12.75" customHeight="1"/>
+    <row r="734" ht="12.75" customHeight="1"/>
+    <row r="735" ht="12.75" customHeight="1"/>
+    <row r="736" ht="12.75" customHeight="1"/>
+    <row r="737" ht="12.75" customHeight="1"/>
+    <row r="738" ht="12.75" customHeight="1"/>
+    <row r="739" ht="12.75" customHeight="1"/>
+    <row r="740" ht="12.75" customHeight="1"/>
+    <row r="741" ht="12.75" customHeight="1"/>
+    <row r="742" ht="12.75" customHeight="1"/>
+    <row r="743" ht="12.75" customHeight="1"/>
+    <row r="744" ht="12.75" customHeight="1"/>
+    <row r="745" ht="12.75" customHeight="1"/>
+    <row r="746" ht="12.75" customHeight="1"/>
+    <row r="747" ht="12.75" customHeight="1"/>
+    <row r="748" ht="12.75" customHeight="1"/>
+    <row r="749" ht="12.75" customHeight="1"/>
+    <row r="750" ht="12.75" customHeight="1"/>
+    <row r="751" ht="12.75" customHeight="1"/>
+    <row r="752" ht="12.75" customHeight="1"/>
+    <row r="753" ht="12.75" customHeight="1"/>
+    <row r="754" ht="12.75" customHeight="1"/>
+    <row r="755" ht="12.75" customHeight="1"/>
+    <row r="756" ht="12.75" customHeight="1"/>
+    <row r="757" ht="12.75" customHeight="1"/>
+    <row r="758" ht="12.75" customHeight="1"/>
+    <row r="759" ht="12.75" customHeight="1"/>
+    <row r="760" ht="12.75" customHeight="1"/>
+    <row r="761" ht="12.75" customHeight="1"/>
+    <row r="762" ht="12.75" customHeight="1"/>
+    <row r="763" ht="12.75" customHeight="1"/>
+    <row r="764" ht="12.75" customHeight="1"/>
+    <row r="765" ht="12.75" customHeight="1"/>
+    <row r="766" ht="12.75" customHeight="1"/>
+    <row r="767" ht="12.75" customHeight="1"/>
+    <row r="768" ht="12.75" customHeight="1"/>
+    <row r="769" ht="12.75" customHeight="1"/>
+    <row r="770" ht="12.75" customHeight="1"/>
+    <row r="771" ht="12.75" customHeight="1"/>
+    <row r="772" ht="12.75" customHeight="1"/>
+    <row r="773" ht="12.75" customHeight="1"/>
+    <row r="774" ht="12.75" customHeight="1"/>
+    <row r="775" ht="12.75" customHeight="1"/>
+    <row r="776" ht="12.75" customHeight="1"/>
+    <row r="777" ht="12.75" customHeight="1"/>
+    <row r="778" ht="12.75" customHeight="1"/>
+    <row r="779" ht="12.75" customHeight="1"/>
+    <row r="780" ht="12.75" customHeight="1"/>
+    <row r="781" ht="12.75" customHeight="1"/>
+    <row r="782" ht="12.75" customHeight="1"/>
+    <row r="783" ht="12.75" customHeight="1"/>
+    <row r="784" ht="12.75" customHeight="1"/>
+    <row r="785" ht="12.75" customHeight="1"/>
+    <row r="786" ht="12.75" customHeight="1"/>
+    <row r="787" ht="12.75" customHeight="1"/>
+    <row r="788" ht="12.75" customHeight="1"/>
+    <row r="789" ht="12.75" customHeight="1"/>
+    <row r="790" ht="12.75" customHeight="1"/>
+    <row r="791" ht="12.75" customHeight="1"/>
+    <row r="792" ht="12.75" customHeight="1"/>
+    <row r="793" ht="12.75" customHeight="1"/>
+    <row r="794" ht="12.75" customHeight="1"/>
+    <row r="795" ht="12.75" customHeight="1"/>
+    <row r="796" ht="12.75" customHeight="1"/>
+    <row r="797" ht="12.75" customHeight="1"/>
+    <row r="798" ht="12.75" customHeight="1"/>
+    <row r="799" ht="12.75" customHeight="1"/>
+    <row r="800" ht="12.75" customHeight="1"/>
+    <row r="801" ht="12.75" customHeight="1"/>
+    <row r="802" ht="12.75" customHeight="1"/>
+    <row r="803" ht="12.75" customHeight="1"/>
+    <row r="804" ht="12.75" customHeight="1"/>
+    <row r="805" ht="12.75" customHeight="1"/>
+    <row r="806" ht="12.75" customHeight="1"/>
+    <row r="807" ht="12.75" customHeight="1"/>
+    <row r="808" ht="12.75" customHeight="1"/>
+    <row r="809" ht="12.75" customHeight="1"/>
+    <row r="810" ht="12.75" customHeight="1"/>
+    <row r="811" ht="12.75" customHeight="1"/>
+    <row r="812" ht="12.75" customHeight="1"/>
+    <row r="813" ht="12.75" customHeight="1"/>
+    <row r="814" ht="12.75" customHeight="1"/>
+    <row r="815" ht="12.75" customHeight="1"/>
+    <row r="816" ht="12.75" customHeight="1"/>
+    <row r="817" ht="12.75" customHeight="1"/>
+    <row r="818" ht="12.75" customHeight="1"/>
+    <row r="819" ht="12.75" customHeight="1"/>
+    <row r="820" ht="12.75" customHeight="1"/>
+    <row r="821" ht="12.75" customHeight="1"/>
+    <row r="822" ht="12.75" customHeight="1"/>
+    <row r="823" ht="12.75" customHeight="1"/>
+    <row r="824" ht="12.75" customHeight="1"/>
+    <row r="825" ht="12.75" customHeight="1"/>
+    <row r="826" ht="12.75" customHeight="1"/>
+    <row r="827" ht="12.75" customHeight="1"/>
+    <row r="828" ht="12.75" customHeight="1"/>
+    <row r="829" ht="12.75" customHeight="1"/>
+    <row r="830" ht="12.75" customHeight="1"/>
+    <row r="831" ht="12.75" customHeight="1"/>
+    <row r="832" ht="12.75" customHeight="1"/>
+    <row r="833" ht="12.75" customHeight="1"/>
+    <row r="834" ht="12.75" customHeight="1"/>
+    <row r="835" ht="12.75" customHeight="1"/>
+    <row r="836" ht="12.75" customHeight="1"/>
+    <row r="837" ht="12.75" customHeight="1"/>
+    <row r="838" ht="12.75" customHeight="1"/>
+    <row r="839" ht="12.75" customHeight="1"/>
+    <row r="840" ht="12.75" customHeight="1"/>
+    <row r="841" ht="12.75" customHeight="1"/>
+    <row r="842" ht="12.75" customHeight="1"/>
+    <row r="843" ht="12.75" customHeight="1"/>
+    <row r="844" ht="12.75" customHeight="1"/>
+    <row r="845" ht="12.75" customHeight="1"/>
+    <row r="846" ht="12.75" customHeight="1"/>
+    <row r="847" ht="12.75" customHeight="1"/>
+    <row r="848" ht="12.75" customHeight="1"/>
+    <row r="849" ht="12.75" customHeight="1"/>
+    <row r="850" ht="12.75" customHeight="1"/>
+    <row r="851" ht="12.75" customHeight="1"/>
+    <row r="852" ht="12.75" customHeight="1"/>
+    <row r="853" ht="12.75" customHeight="1"/>
+    <row r="854" ht="12.75" customHeight="1"/>
+    <row r="855" ht="12.75" customHeight="1"/>
+    <row r="856" ht="12.75" customHeight="1"/>
+    <row r="857" ht="12.75" customHeight="1"/>
+    <row r="858" ht="12.75" customHeight="1"/>
+    <row r="859" ht="12.75" customHeight="1"/>
+    <row r="860" ht="12.75" customHeight="1"/>
+    <row r="861" ht="12.75" customHeight="1"/>
+    <row r="862" ht="12.75" customHeight="1"/>
+    <row r="863" ht="12.75" customHeight="1"/>
+    <row r="864" ht="12.75" customHeight="1"/>
+    <row r="865" ht="12.75" customHeight="1"/>
+    <row r="866" ht="12.75" customHeight="1"/>
+    <row r="867" ht="12.75" customHeight="1"/>
+    <row r="868" ht="12.75" customHeight="1"/>
+    <row r="869" ht="12.75" customHeight="1"/>
+    <row r="870" ht="12.75" customHeight="1"/>
+    <row r="871" ht="12.75" customHeight="1"/>
+    <row r="872" ht="12.75" customHeight="1"/>
+    <row r="873" ht="12.75" customHeight="1"/>
+    <row r="874" ht="12.75" customHeight="1"/>
+    <row r="875" ht="12.75" customHeight="1"/>
+    <row r="876" ht="12.75" customHeight="1"/>
+    <row r="877" ht="12.75" customHeight="1"/>
+    <row r="878" ht="12.75" customHeight="1"/>
+    <row r="879" ht="12.75" customHeight="1"/>
+    <row r="880" ht="12.75" customHeight="1"/>
+    <row r="881" ht="12.75" customHeight="1"/>
+    <row r="882" ht="12.75" customHeight="1"/>
+    <row r="883" ht="12.75" customHeight="1"/>
+    <row r="884" ht="12.75" customHeight="1"/>
+    <row r="885" ht="12.75" customHeight="1"/>
+    <row r="886" ht="12.75" customHeight="1"/>
+    <row r="887" ht="12.75" customHeight="1"/>
+    <row r="888" ht="12.75" customHeight="1"/>
+    <row r="889" ht="12.75" customHeight="1"/>
+    <row r="890" ht="12.75" customHeight="1"/>
+    <row r="891" ht="12.75" customHeight="1"/>
+    <row r="892" ht="12.75" customHeight="1"/>
+    <row r="893" ht="12.75" customHeight="1"/>
+    <row r="894" ht="12.75" customHeight="1"/>
+    <row r="895" ht="12.75" customHeight="1"/>
+    <row r="896" ht="12.75" customHeight="1"/>
+    <row r="897" ht="12.75" customHeight="1"/>
+    <row r="898" ht="12.75" customHeight="1"/>
+    <row r="899" ht="12.75" customHeight="1"/>
+    <row r="900" ht="12.75" customHeight="1"/>
+    <row r="901" ht="12.75" customHeight="1"/>
+    <row r="902" ht="12.75" customHeight="1"/>
+    <row r="903" ht="12.75" customHeight="1"/>
+    <row r="904" ht="12.75" customHeight="1"/>
+    <row r="905" ht="12.75" customHeight="1"/>
+    <row r="906" ht="12.75" customHeight="1"/>
+    <row r="907" ht="12.75" customHeight="1"/>
+    <row r="908" ht="12.75" customHeight="1"/>
+    <row r="909" ht="12.75" customHeight="1"/>
+    <row r="910" ht="12.75" customHeight="1"/>
+    <row r="911" ht="12.75" customHeight="1"/>
+    <row r="912" ht="12.75" customHeight="1"/>
+    <row r="913" ht="12.75" customHeight="1"/>
+    <row r="914" ht="12.75" customHeight="1"/>
+    <row r="915" ht="12.75" customHeight="1"/>
+    <row r="916" ht="12.75" customHeight="1"/>
+    <row r="917" ht="12.75" customHeight="1"/>
+    <row r="918" ht="12.75" customHeight="1"/>
+    <row r="919" ht="12.75" customHeight="1"/>
+    <row r="920" ht="12.75" customHeight="1"/>
+    <row r="921" ht="12.75" customHeight="1"/>
+    <row r="922" ht="12.75" customHeight="1"/>
+    <row r="923" ht="12.75" customHeight="1"/>
+    <row r="924" ht="12.75" customHeight="1"/>
+    <row r="925" ht="12.75" customHeight="1"/>
+    <row r="926" ht="12.75" customHeight="1"/>
+    <row r="927" ht="12.75" customHeight="1"/>
+    <row r="928" ht="12.75" customHeight="1"/>
+    <row r="929" ht="12.75" customHeight="1"/>
+    <row r="930" ht="12.75" customHeight="1"/>
+    <row r="931" ht="12.75" customHeight="1"/>
+    <row r="932" ht="12.75" customHeight="1"/>
+    <row r="933" ht="12.75" customHeight="1"/>
+    <row r="934" ht="12.75" customHeight="1"/>
+    <row r="935" ht="12.75" customHeight="1"/>
+    <row r="936" ht="12.75" customHeight="1"/>
+    <row r="937" ht="12.75" customHeight="1"/>
+    <row r="938" ht="12.75" customHeight="1"/>
+    <row r="939" ht="12.75" customHeight="1"/>
+    <row r="940" ht="12.75" customHeight="1"/>
+    <row r="941" ht="12.75" customHeight="1"/>
+    <row r="942" ht="12.75" customHeight="1"/>
+    <row r="943" ht="12.75" customHeight="1"/>
+    <row r="944" ht="12.75" customHeight="1"/>
+    <row r="945" ht="12.75" customHeight="1"/>
+    <row r="946" ht="12.75" customHeight="1"/>
+    <row r="947" ht="12.75" customHeight="1"/>
+    <row r="948" ht="12.75" customHeight="1"/>
+    <row r="949" ht="12.75" customHeight="1"/>
+    <row r="950" ht="12.75" customHeight="1"/>
+    <row r="951" ht="12.75" customHeight="1"/>
+    <row r="952" ht="12.75" customHeight="1"/>
+    <row r="953" ht="12.75" customHeight="1"/>
+    <row r="954" ht="12.75" customHeight="1"/>
+    <row r="955" ht="12.75" customHeight="1"/>
+    <row r="956" ht="12.75" customHeight="1"/>
+    <row r="957" ht="12.75" customHeight="1"/>
+    <row r="958" ht="12.75" customHeight="1"/>
+    <row r="959" ht="12.75" customHeight="1"/>
+    <row r="960" ht="12.75" customHeight="1"/>
+    <row r="961" ht="12.75" customHeight="1"/>
+    <row r="962" ht="12.75" customHeight="1"/>
+    <row r="963" ht="12.75" customHeight="1"/>
+    <row r="964" ht="12.75" customHeight="1"/>
+    <row r="965" ht="12.75" customHeight="1"/>
+    <row r="966" ht="12.75" customHeight="1"/>
+    <row r="967" ht="12.75" customHeight="1"/>
+    <row r="968" ht="12.75" customHeight="1"/>
+    <row r="969" ht="12.75" customHeight="1"/>
+    <row r="970" ht="12.75" customHeight="1"/>
+    <row r="971" ht="12.75" customHeight="1"/>
+    <row r="972" ht="12.75" customHeight="1"/>
+    <row r="973" ht="12.75" customHeight="1"/>
+    <row r="974" ht="12.75" customHeight="1"/>
+    <row r="975" ht="12.75" customHeight="1"/>
+    <row r="976" ht="12.75" customHeight="1"/>
+    <row r="977" ht="12.75" customHeight="1"/>
+    <row r="978" ht="12.75" customHeight="1"/>
+    <row r="979" ht="12.75" customHeight="1"/>
+    <row r="980" ht="12.75" customHeight="1"/>
+    <row r="981" ht="12.75" customHeight="1"/>
+    <row r="982" ht="12.75" customHeight="1"/>
+    <row r="983" ht="12.75" customHeight="1"/>
+    <row r="984" ht="12.75" customHeight="1"/>
+    <row r="985" ht="12.75" customHeight="1"/>
+    <row r="986" ht="12.75" customHeight="1"/>
+    <row r="987" ht="12.75" customHeight="1"/>
+    <row r="988" ht="12.75" customHeight="1"/>
+    <row r="989" ht="12.75" customHeight="1"/>
+    <row r="990" ht="12.75" customHeight="1"/>
+    <row r="991" ht="12.75" customHeight="1"/>
+    <row r="992" ht="12.75" customHeight="1"/>
+    <row r="993" ht="12.75" customHeight="1"/>
+    <row r="994" ht="12.75" customHeight="1"/>
+    <row r="995" ht="12.75" customHeight="1"/>
+    <row r="996" ht="12.75" customHeight="1"/>
+    <row r="997" ht="12.75" customHeight="1"/>
+    <row r="998" ht="12.75" customHeight="1"/>
+    <row r="999" ht="12.75" customHeight="1"/>
+    <row r="1000" ht="12.75" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="136">
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="S2:T4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:T5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G6:T6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="G7:T7"/>
+    <mergeCell ref="A1:F4"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="G2:J4"/>
+    <mergeCell ref="K2:N4"/>
+    <mergeCell ref="O2:P4"/>
+    <mergeCell ref="Q2:R4"/>
+  </mergeCells>
+  <phoneticPr fontId="7"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+</worksheet>
 </file>